--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C8CF0D-AE02-4AB1-B90A-7822F7A8667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABBF0DA-4B43-4F7B-A7CA-298F6331B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" tabRatio="872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASP.net" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="539">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -335,51 +335,6 @@
     <t>ACID property in SQL</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">for shallow copy Ex.
-   public object Clone()
-    {
-         return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>this.MemberwiseClone();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    }
-for Deep copy :
- public int I {  get;  set; }
-     public int J {  get;  set; }
-     public ReferenceType K =  new ReferenceType();
-     //Method updated for reference type ..
-     public object Clone()
-    {
-         // Shalllow Copy..
-         ShallowCopy SC = (ShallowCopy)this.MemberwiseClone();
-         // Deep copy...
-         ReferenceType RT =  new ReferenceType();
-        RT.RFT =  this.K.RFT;
-        SC.K = RT;
-         return SC;
-    } </t>
-    </r>
-  </si>
-  <si>
     <t>WCF instance creation</t>
   </si>
   <si>
@@ -548,15 +503,9 @@
     </r>
   </si>
   <si>
-    <t>Has a relationship</t>
-  </si>
-  <si>
     <t>is a realationship</t>
   </si>
   <si>
-    <t>Manager and swipcard does not depend on each other, card jut assign to manager</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">A Manager </t>
     </r>
@@ -598,58 +547,7 @@
     <t>Aggrigatoin relationship</t>
   </si>
   <si>
-    <t>Manager has many worker under him</t>
-  </si>
-  <si>
     <t>Composition relationship</t>
-  </si>
-  <si>
-    <t>Manager salary depends on project success</t>
-  </si>
-  <si>
-    <t>both are depend on each other, if project goes off then manager have problem and 
-manager goes of then project is not successfull</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>has a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> swipcard to enter company premises -- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Association</t>
-    </r>
-  </si>
-  <si>
-    <t>there is single owner of child object, they does not belong to some other entity in company</t>
   </si>
   <si>
     <t>A composite key is a combination of two or more columns in a table that can be used to uniquely identify each row in the table</t>
@@ -932,17 +830,6 @@
     <t>IEnumerable</t>
   </si>
   <si>
-    <t xml:space="preserve">foreach(string AllMonths in iEnumerableOfString)  
-{  
-   Console.WriteLine(AllMonths);  
-}  </t>
-  </si>
-  <si>
-    <t>IEnumerable is used when we want to iterate among our classes using a foreach loop.
-The main difference between IEnumerable and IEnumerator is an IEnumerator retains its cursor's current state.
-IENumerable is used for LINQ to Object and LINQ to XML queries.</t>
-  </si>
-  <si>
     <t>IEnumerator</t>
   </si>
   <si>
@@ -955,108 +842,7 @@
     <t>***</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The ICollection interface contains the following properties:
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> property is used for maintaining the count of elements in the list
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IsSysnchronized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and SyncRoot properties help to make the collection thread-safe.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CopyTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> method copies the entire collection into an array.
-The generic version of this interface provides Add and Remove methods also.</t>
-    </r>
-  </si>
-  <si>
-    <t>public interface ICollection : IEnumerable
-{
-    int Count { get; }  
-    bool IsSynchronized { get; }
-    Object SyncRoot { get; } 
-    void CopyTo(Array array, int index);
-}
-public interface ICollection : IEnumerable, IEnumerable
-{
-    int Count { get; }
-    bool IsReadOnly { get; } 
-    void Add(T item);
-    void Clear();
-    bool Contains(T item);
-    void CopyTo(T[] array, int arrayIndex);
-    bool Remove(T item);
-}</t>
-  </si>
-  <si>
-    <t>while(iEnumeratorOfString.MoveNext())  
-{  
-   Console.WriteLine(iEnumeratorOfString.Current);  
-}</t>
-  </si>
-  <si>
     <t>Ilist</t>
-  </si>
-  <si>
-    <t>IList exists in System.Collections Namespace.
-IList Interface implements both IEnumerable and ICollection Interface.
-IList is used to access an element in a specific position/index in a list.
-Like IEnumerable, IList is also best to query data from in-memory collections like List, Array etc.
-IList is useful when you want to Add or remove items from the list.
-IList can find out the no of elements in the collection without iterating the collection.
-IList supports deferred execution.
-IList doesn’t support further filtering.</t>
   </si>
   <si>
     <t>high and low leve design creation</t>
@@ -5047,79 +4833,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>IEnumerator contains</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MoveNext()</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Reset()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> methods and also has</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> one property called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Current</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> that returns the current element in the list.</t>
-    </r>
-  </si>
-  <si>
     <t>Async await</t>
   </si>
   <si>
@@ -8325,12 +8038,683 @@
 This principle tells you not to write any tightly coupled code because that become very tedious task to maintain code when the application is growing bigger and bigger. If a class depends on another class, then we need to change one class if something changes in that dependent class.
 Write loosely coupled code using dependency injection which is highly maintainable. Eg. To send notification though SMS and Email create implement IMessenger interface in Notification class by passing IMessenger dependency through constructor. </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for shallow copy Ex.
+   public object Clone()
+    {
+         return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this.MemberwiseClone();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+for Deep copy :
+ public int I {  get;  set; }
+     public int J {  get;  set; }
+     public ReferenceType K =  new ReferenceType();
+     //Method updated for reference type .
+     public object Clone()
+    {
+         // Shalllow Copy..
+         ShallowCopy SC = (ShallowCopy)this.MemberwiseClone();
+         // Deep copy...
+         ReferenceType RT =  new ReferenceType();
+        RT.RFT =  this.K.RFT;
+        SC.K = RT;
+         return SC;
+    } </t>
+    </r>
+  </si>
+  <si>
+    <t>Association (Has a relationship)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> swipcard to enter company premises.</t>
+    </r>
+  </si>
+  <si>
+    <t>there is single owner of child object, they does not belong to some other entity in company.
+Ex. Manager has multiple swip card as per the location. But the same swip card does not have multiple Manager assigned.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager and swipcard does not depend on each other, card jut assign to manager.
+Ex. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diner has assigned to waiter. Both are not depend on eachother. Diner take service from multiple waiter. Similarly waiter can attend multiple Diner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager has many worker under him.
+It is also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relationship between classA and classB, but in Aggrigation classA is the owner of classB.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager salary depends on project success.
+It is also a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relationship between classA and classB. But in Composition classA is not only the owner of classB but also handels the lifecyle of classB.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=spjpukTIL4o</t>
+  </si>
+  <si>
+    <t>both are depend on each other, if project goes off then manager is in problem and 
+manager goes of then project is also in problem.</t>
+  </si>
+  <si>
+    <r>
+      <t>IEnumerator contains</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MoveNext()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Reset()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> methods and also has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> one property called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that returns the current element in the list.
+To iterate collection we have to use While(item.MoveNext());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IEnumerable is used when we want to iterate among our classes using a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>foreach loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+The main difference between IEnumerable and IEnumerator is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEnumerator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>retains its cursor's current state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+IEnumerable internally uses IEnumerator.
+IEnumerable is used for LINQ to Object and LINQ to XML queries.
+So, if you want to loop sequentially through the collection, use an IEnumerable interface else if you want to retain the cursor position and want to pass it from one function to another function then use an IEnumerator interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The ICollection interface contains the following properties:
+It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>implements IEnumerable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> interface.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> property is used for maintaining the count of elements in the list
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IsSysnchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and SyncRoot properties help to make the collection thread-safe.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CopyTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method copies the entire collection into an array.
+It provides </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add and Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> methods also.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IList exists in System.Collections Namespace.
+IList Interface </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>implements both IEnumerable and ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Interface.
+IList is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>access an element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in a specific position/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index in a list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+Like IEnumerable, IList is also best to query data from in-memory collections like List, Array etc.
+IList is useful when you want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add or remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the between of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the list by index.
+IList can find out the no of elements in the collection without iterating the collection.
+IList supports deferred execution.
+IList doesn’t support further filtering.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: System.Linq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: System.Collections.Generic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: System.Collections.Generic
+public interface ICollection : IEnumerable
+{
+    int Count { get; }  
+    bool IsSynchronized { get; }
+    Object SyncRoot { get; } 
+    void CopyTo(Array array, int index);
+}
+public interface ICollection : IEnumerable, IEnumerable
+{
+    int Count { get; }
+    bool IsReadOnly { get; } 
+    void Add(T item);
+    void Clear();
+    bool Contains(T item);
+    void CopyTo(T[] array, int arrayIndex);
+    bool Remove(T item);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: System.Collections.Generic
+foreach(string AllMonths in iEnumerableOfString)  
+{  
+   Console.WriteLine(AllMonths);  
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: System.Collections.Generic
+while(iEnumeratorOfString.MoveNext())  
+{  
+   Console.WriteLine(iEnumeratorOfString.Current);  
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>IQueryable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>implements IEnumerable interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+IQueryable generates an expression tree and gives Expression&lt;Func&lt;T, bool&gt;&gt; that is executed over the database layer to get data set.
+https://www.youtube.com/results?search_query=IQueryable+generates+an+expression+tree
+..</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8558,6 +8942,13 @@
       <color rgb="FF313131"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -9337,6 +9728,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9354,27 +9766,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9717,120 +10108,120 @@
     </row>
     <row r="3" spans="1:3" ht="144">
       <c r="A3" s="25" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="115.2">
       <c r="A9" s="25" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.4">
       <c r="A11" s="25" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="25" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="25" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="100.8">
       <c r="A17" s="25" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="25" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72">
       <c r="A21" s="25" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2">
       <c r="A25" s="25" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" s="25" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="25" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -9867,173 +10258,173 @@
     </row>
     <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="25" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
       <c r="A5" s="25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2">
       <c r="A7" s="79" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4">
       <c r="A8" s="80"/>
       <c r="B8" s="15" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="25" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="25" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8">
       <c r="A21" s="25" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8">
       <c r="A22" s="25" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="57.6">
       <c r="A27" s="79" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6">
       <c r="A28" s="80"/>
       <c r="B28" s="15" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -10061,42 +10452,42 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -10132,50 +10523,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
       <c r="A5" s="28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="28" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2">
       <c r="A9" s="28" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="28" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6">
       <c r="B12" s="15" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10183,21 +10574,21 @@
     </row>
     <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="28" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -10218,25 +10609,25 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="26" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="26" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10244,75 +10635,75 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="26" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10355,70 +10746,70 @@
     </row>
     <row r="3" spans="1:3" ht="316.8">
       <c r="A3" s="25" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="25" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8">
       <c r="A21" s="28" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10426,94 +10817,94 @@
     </row>
     <row r="23" spans="1:4" ht="72">
       <c r="A23" s="28" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="28" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54.6">
       <c r="A26" s="25" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="25" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57.6">
       <c r="A32" s="25" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8">
       <c r="A33" s="25" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="25" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="43.2">
       <c r="A37" s="25" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="187.2">
       <c r="A39" s="25" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="25" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="25" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="25" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -10553,10 +10944,10 @@
     </row>
     <row r="3" spans="1:3" ht="230.4">
       <c r="A3" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10565,10 +10956,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10577,10 +10968,10 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10621,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1">
@@ -10631,10 +11022,10 @@
     </row>
     <row r="6" spans="1:3" ht="100.8">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="115.2">
@@ -10642,31 +11033,31 @@
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="25" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10680,11 +11071,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10709,23 +11100,23 @@
     </row>
     <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="25" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="25" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="25" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="95.4" customHeight="1">
@@ -10733,10 +11124,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>9</v>
@@ -10757,13 +11148,13 @@
     </row>
     <row r="12" spans="1:4" ht="129.6">
       <c r="A12" s="25" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58.5" customHeight="1">
@@ -10771,451 +11162,467 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8">
       <c r="A17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2">
+      <c r="A18" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2">
+      <c r="A19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B19" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6">
+      <c r="A20" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8">
-      <c r="A20" s="25" t="s">
-        <v>48</v>
-      </c>
       <c r="B20" s="15" t="s">
-        <v>49</v>
+        <v>525</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="48">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72">
       <c r="A21" s="25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>96</v>
+        <v>536</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="52.8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="105.6">
       <c r="A22" s="25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>88</v>
+        <v>535</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="104.25" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="107.4" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>95</v>
+        <v>534</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>94</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="130.5" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>533</v>
+      </c>
       <c r="C24" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="115.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="130.5" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="72">
-      <c r="A28" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>537</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="115.2">
+      <c r="A26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72">
       <c r="A29" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="42.75" customHeight="1">
+      <c r="A31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="42.75" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="C31" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8">
+      <c r="A33" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8">
-      <c r="A32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="52" t="s">
+      <c r="B33" s="52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="86.4">
+      <c r="A35" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="115.2">
+      <c r="A37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="100.8">
+      <c r="A38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="158.4">
+      <c r="A39" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="86.4">
-      <c r="A34" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="115.2">
-      <c r="A36" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="100.8">
-      <c r="A37" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="158.4">
-      <c r="A38" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="129.6">
-      <c r="A40" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="115.2">
+    <row r="41" spans="1:5" ht="129.6">
       <c r="A41" s="25" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="25" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="115.2">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="29"/>
-    </row>
-    <row r="48" spans="1:5" ht="27.6">
-      <c r="A48" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="72" t="s">
-        <v>151</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="29"/>
     </row>
     <row r="49" spans="1:3" ht="27.6">
       <c r="A49" s="71" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C49" s="29"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="27.6">
       <c r="A50" s="71" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:3" ht="27.6">
+    <row r="51" spans="1:3">
       <c r="A51" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="73" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C51" s="29"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="27.6">
       <c r="A52" s="71" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B52" s="73" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>161</v>
+      <c r="A53" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="73" t="s">
+        <v>145</v>
       </c>
       <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>147</v>
+      </c>
       <c r="C54" s="29"/>
     </row>
-    <row r="55" spans="1:3" ht="28.8">
-      <c r="A55" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>506</v>
-      </c>
+    <row r="55" spans="1:3">
+      <c r="A55" s="77"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="29"/>
     </row>
-    <row r="57" spans="1:3" ht="28.8">
-      <c r="A57" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A59" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="43.2">
-      <c r="A61" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="72">
-      <c r="A63" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="28.8">
-      <c r="A65" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="57.6">
-      <c r="A67" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="259.2">
-      <c r="A69" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
-        <v>490</v>
+    <row r="56" spans="1:3" ht="28.8">
+      <c r="A56" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" s="29"/>
+    </row>
+    <row r="58" spans="1:3" ht="28.8">
+      <c r="A58" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="127.5" customHeight="1">
+      <c r="A60" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.2">
+      <c r="A62" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="72">
+      <c r="A64" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="28.8">
+      <c r="A66" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="57.6">
+      <c r="A68" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="259.2">
+      <c r="A70" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="72">
-      <c r="A73" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="57.6">
-      <c r="A75" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="25" t="s">
-        <v>495</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="72">
+      <c r="A74" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="57.6">
+      <c r="A76" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="25" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="43.2">
-      <c r="A81" s="25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="43.2">
-      <c r="A83" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="25" t="s">
-        <v>490</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="43.2">
+      <c r="A82" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="43.2">
+      <c r="A84" s="25" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="57.6">
-      <c r="A89" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="57.6">
+      <c r="A90" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B32" r:id="rId3" xr:uid="{1DB1D179-E8C3-4429-8C7A-6AB514BCEAD3}"/>
-    <hyperlink ref="B34" r:id="rId4" xr:uid="{96B5D1D9-FAE0-455D-A6BD-8F8C516948C6}"/>
+    <hyperlink ref="B33" r:id="rId3" xr:uid="{1DB1D179-E8C3-4429-8C7A-6AB514BCEAD3}"/>
+    <hyperlink ref="B35" r:id="rId4" xr:uid="{96B5D1D9-FAE0-455D-A6BD-8F8C516948C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -11250,59 +11657,59 @@
     </row>
     <row r="3" spans="1:3" ht="57.6">
       <c r="A3" s="28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8">
       <c r="A5" s="28" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4">
       <c r="A7" s="28" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
       <c r="A9" s="28" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8">
       <c r="A11" s="28" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="28" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -11343,26 +11750,26 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
       <c r="A5" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6">
@@ -11370,7 +11777,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144">
@@ -11378,54 +11785,54 @@
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.8">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6">
       <c r="A14" s="3" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="3" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="144">
       <c r="B18" s="9" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -11461,10 +11868,10 @@
     </row>
     <row r="2" spans="1:3" ht="187.2">
       <c r="A2" s="53" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="259.2">
@@ -11472,88 +11879,88 @@
         <v>7</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="216">
       <c r="A6" s="25" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="216">
       <c r="A7" s="25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="115.2">
       <c r="A8" s="25" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2">
       <c r="A10" s="79" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2">
       <c r="A11" s="80"/>
       <c r="B11" s="15" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="100.8">
       <c r="A13" s="79" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="129.6">
       <c r="A14" s="80"/>
       <c r="B14" s="15" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8">
       <c r="A16" s="25" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11561,98 +11968,98 @@
     </row>
     <row r="19" spans="1:4" ht="43.2">
       <c r="A19" s="53" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="187.2">
       <c r="A21" s="25" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144">
       <c r="A23" s="25" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="144">
       <c r="A25" s="25" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="144">
       <c r="A27" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2">
       <c r="A29" s="25" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="201.6">
       <c r="A31" s="53" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="115.2">
       <c r="A32" s="53" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="201.6">
       <c r="A33" s="53" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -11660,190 +12067,190 @@
     </row>
     <row r="36" spans="1:3" ht="129.6">
       <c r="A36" s="25" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="72">
       <c r="A38" s="28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
       <c r="A40" s="25" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="158.4">
       <c r="A42" s="25" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.2">
       <c r="A44" s="25" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.2">
       <c r="A46" s="25" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="25" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="43.2">
       <c r="A50" s="25" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="25" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="25" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="25" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="86.4">
       <c r="A55" s="25" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="129.6">
       <c r="A57" s="25" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="189" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="100.8">
       <c r="A61" s="25" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8">
       <c r="A65" s="25" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="129.6">
       <c r="A67" s="25" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="409.6">
       <c r="A69" s="25" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D69" s="68" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -11890,98 +12297,98 @@
     </row>
     <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="87" thickBot="1">
+      <c r="A4" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="92"/>
+      <c r="B5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+    </row>
+    <row r="6" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="37" t="s">
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A9" s="93"/>
+      <c r="B9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="40" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11989,32 +12396,32 @@
     </row>
     <row r="11" spans="1:5" ht="60">
       <c r="A11" s="79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="90"/>
+      <c r="B12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="90"/>
+      <c r="B13" s="44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="83"/>
-      <c r="B12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="83"/>
-      <c r="B13" s="44" t="s">
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" s="90"/>
+      <c r="B14" s="44" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="83"/>
-      <c r="B14" s="44" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="80"/>
       <c r="B15" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12023,338 +12430,338 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="45" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="45" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="45" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="86.4">
       <c r="A22" s="25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="25" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="25" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="100.8">
       <c r="A28" s="25" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="86.4">
       <c r="A29" s="25" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="46" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="87" t="s">
-        <v>187</v>
+      <c r="A32" s="84" t="s">
+        <v>173</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="88"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="48" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="88"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="48" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="88"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="48" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="89"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="49" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="87" t="s">
-        <v>193</v>
+      <c r="A37" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="89"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="49" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="87" t="s">
-        <v>196</v>
+      <c r="A39" s="84" t="s">
+        <v>182</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="88"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="48" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="89"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="49" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="51" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="87" t="s">
-        <v>202</v>
+      <c r="A43" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="89"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="87" t="s">
-        <v>205</v>
+      <c r="A45" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="89"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="49" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="51" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="87" t="s">
-        <v>210</v>
+      <c r="A48" s="84" t="s">
+        <v>196</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="93"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="49" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="25" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="55" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="22.8">
       <c r="A55" s="57" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="23.4" thickBot="1">
       <c r="A56" s="59" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="B57" s="81" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="B58" s="91"/>
+        <v>298</v>
+      </c>
+      <c r="B58" s="82"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="B59" s="92"/>
+        <v>299</v>
+      </c>
+      <c r="B59" s="83"/>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="59" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="61" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="129.6">
       <c r="A64" s="25" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="25" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="43.2">
       <c r="A68" s="3" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="43.2">
       <c r="A69" s="3" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -12363,16 +12770,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>

--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABBF0DA-4B43-4F7B-A7CA-298F6331B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80C7A4-E3AD-4296-8D44-FAEDF39AB131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="539">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -4144,9 +4144,6 @@
     <t>What is the difference between ref &amp; out parameters?</t>
   </si>
   <si>
-    <t>An argument passed as ref must be initialized before passing to the method whereas out parameter needs not to be initialized before passing to a method.</t>
-  </si>
-  <si>
     <t>What is difference between is and as operators in c#?</t>
   </si>
   <si>
@@ -6926,10 +6923,6 @@
   <si>
     <t>GC.SuppressFinalize(this);
 //you can pass in any object instead of “this.”</t>
-  </si>
-  <si>
-    <t>. If my code calls Dispose() then there is no reason for the Finalizer to run at all. 
-. With SupressFinalize() we can just call SuppressFinalize() from within Dispose() and that will tell .NET to not run the Finalize method when it gets to our object.</t>
   </si>
   <si>
     <t>http://rakeshwebsolution.blogspot.com.ar/search/label/Dependency-Generalization-%20Association-Aggregation-Composition%20in%20Object%20Oriented%20Programming</t>
@@ -8708,6 +8701,57 @@
 https://www.youtube.com/results?search_query=IQueryable+generates+an+expression+tree
 ..</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An argument passed as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref must be initialized before passing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the method whereas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out parameter needs not to be initialized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before passing to a method.</t>
+    </r>
+  </si>
+  <si>
+    <t>. If my code calls Dispose() then there is no reason for the Finalizer to run at all. 
+. With SupressFinalize() we can just call SuppressFinalize() from within Dispose() and that will tell .NET to not run the Finalize method when it gets to our object and GC reclaim the managed and unmanaged memory in one go.</t>
   </si>
 </sst>
 </file>
@@ -9728,27 +9772,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9766,6 +9789,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10111,117 +10155,117 @@
         <v>319</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="115.2">
       <c r="A9" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.4">
       <c r="A11" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="100.8">
       <c r="A17" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72">
       <c r="A21" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2">
       <c r="A25" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -10421,10 +10465,10 @@
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -10555,18 +10599,18 @@
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>499</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6">
       <c r="B12" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10574,21 +10618,21 @@
     </row>
     <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1">
       <c r="A16" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>505</v>
-      </c>
       <c r="C16" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -10617,12 +10661,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10878,33 +10922,33 @@
     </row>
     <row r="39" spans="1:3" ht="187.2">
       <c r="A39" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -11038,26 +11082,26 @@
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11071,11 +11115,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11100,23 +11144,23 @@
     </row>
     <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="95.4" customHeight="1">
@@ -11124,10 +11168,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>9</v>
@@ -11148,13 +11192,13 @@
     </row>
     <row r="12" spans="1:4" ht="129.6">
       <c r="A12" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58.5" customHeight="1">
@@ -11162,15 +11206,15 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8">
@@ -11181,21 +11225,21 @@
         <v>42</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>523</v>
-      </c>
       <c r="D18" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2">
@@ -11203,10 +11247,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6">
@@ -11214,10 +11258,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>525</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72">
@@ -11225,10 +11269,10 @@
         <v>80</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6">
@@ -11236,10 +11280,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="107.4" customHeight="1">
@@ -11247,10 +11291,10 @@
         <v>81</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="130.5" customHeight="1">
@@ -11258,21 +11302,21 @@
         <v>84</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="130.5" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="115.2">
@@ -11283,12 +11327,23 @@
         <v>131</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="57.6">
+      <c r="A28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" ht="72">
       <c r="A29" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11312,18 +11367,18 @@
         <v>76</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="86.4">
       <c r="A35" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="115.2">
@@ -11331,7 +11386,7 @@
         <v>105</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>107</v>
@@ -11356,13 +11411,13 @@
     </row>
     <row r="39" spans="1:5" ht="158.4">
       <c r="A39" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="129.6">
@@ -11465,10 +11520,10 @@
     </row>
     <row r="56" spans="1:3" ht="28.8">
       <c r="A56" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C56" s="29"/>
     </row>
@@ -11485,7 +11540,7 @@
         <v>317</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>318</v>
@@ -11496,125 +11551,104 @@
         <v>320</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>321</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="72">
       <c r="A64" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="28.8">
       <c r="A66" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="57.6">
       <c r="A68" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="259.2">
       <c r="A70" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="72">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="86.4">
       <c r="A74" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="57.6">
-      <c r="A76" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>514</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="25" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="43.2">
-      <c r="A82" s="25" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="43.2">
-      <c r="A84" s="25" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="25" t="s">
+    <row r="81" spans="1:2" ht="43.2">
+      <c r="A81" s="25" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="83" spans="1:2" ht="43.2">
+      <c r="A83" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="57.6">
       <c r="A87" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="57.6">
-      <c r="A90" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -11657,59 +11691,59 @@
     </row>
     <row r="3" spans="1:3" ht="57.6">
       <c r="A3" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8">
       <c r="A5" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4">
       <c r="A7" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
       <c r="A9" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>406</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8">
       <c r="A11" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>408</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -11777,7 +11811,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144">
@@ -11788,7 +11822,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.8">
@@ -11811,28 +11845,28 @@
     </row>
     <row r="14" spans="1:3" ht="57.6">
       <c r="A14" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="144">
       <c r="B18" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -11982,84 +12016,84 @@
         <v>312</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144">
       <c r="A23" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="144">
       <c r="A25" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>421</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="144">
       <c r="A27" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2">
       <c r="A29" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="201.6">
       <c r="A31" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="D31" s="67" t="s">
         <v>428</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="115.2">
       <c r="A32" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="201.6">
       <c r="A33" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>391</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12100,157 +12134,157 @@
     </row>
     <row r="42" spans="1:3" ht="158.4">
       <c r="A42" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.2">
       <c r="A44" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.2">
       <c r="A46" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="43.2">
       <c r="A50" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>364</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="86.4">
       <c r="A55" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="129.6">
       <c r="A57" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="189" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="100.8">
       <c r="A61" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8">
       <c r="A65" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="129.6">
       <c r="A67" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="409.6">
       <c r="A69" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>443</v>
-      </c>
       <c r="D69" s="68" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -12303,11 +12337,11 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -12321,18 +12355,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="92"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
@@ -12347,7 +12381,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="92"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="39" t="s">
         <v>32</v>
       </c>
@@ -12362,7 +12396,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="92"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
@@ -12377,7 +12411,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="93"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="40" t="s">
         <v>29</v>
       </c>
@@ -12403,17 +12437,17 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="90"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="90"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="90"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
@@ -12533,7 +12567,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="87" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="47" t="s">
@@ -12541,31 +12575,31 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="85"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="48" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="85"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="48" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="85"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="48" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="86"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="49" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="87" t="s">
         <v>179</v>
       </c>
       <c r="B37" s="47" t="s">
@@ -12573,13 +12607,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="86"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="49" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="87" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -12587,13 +12621,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="85"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="86"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="49" t="s">
         <v>185</v>
       </c>
@@ -12607,7 +12641,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="87" t="s">
         <v>188</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -12615,13 +12649,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="86"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="49" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="87" t="s">
         <v>191</v>
       </c>
       <c r="B45" s="47" t="s">
@@ -12629,7 +12663,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="86"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="49" t="s">
         <v>193</v>
       </c>
@@ -12643,7 +12677,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="87" t="s">
         <v>196</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -12651,7 +12685,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="87"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="49" t="s">
         <v>198</v>
       </c>
@@ -12689,7 +12723,7 @@
       <c r="A57" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="90" t="s">
         <v>300</v>
       </c>
     </row>
@@ -12697,13 +12731,13 @@
       <c r="A58" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="82"/>
+      <c r="B58" s="91"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="B59" s="83"/>
+      <c r="B59" s="92"/>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="59" t="s">
@@ -12742,26 +12776,26 @@
     </row>
     <row r="68" spans="1:2" ht="43.2">
       <c r="A68" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="43.2">
       <c r="A69" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -12770,16 +12804,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>

--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80C7A4-E3AD-4296-8D44-FAEDF39AB131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBE255-7E87-449B-807D-AB653C1396CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="570">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -1070,9 +1070,6 @@
     <t>Mutex</t>
   </si>
   <si>
-    <t>Cemaphore</t>
-  </si>
-  <si>
     <t>Message Contract</t>
   </si>
   <si>
@@ -4421,75 +4418,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 First NormalForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :: • Eliminate duplicative columns from the same table.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 NormalForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :: Meet requirement of 1st NormalForm and
-Remove columns which create duplicate data in a table and related a new table with Primary Key – Foreign Key relationship.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3 NormalForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :: Meet all the requirements of the second normal form.
-•         Remove columns that are not dependent upon the primary key.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>A (Automicity)</t>
     </r>
     <r>
@@ -8753,12 +8681,289 @@
     <t>. If my code calls Dispose() then there is no reason for the Finalizer to run at all. 
 . With SupressFinalize() we can just call SuppressFinalize() from within Dispose() and that will tell .NET to not run the Finalize method when it gets to our object and GC reclaim the managed and unmanaged memory in one go.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 First NormalForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :: • Eliminate duplicative columns from the same table.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 NormalForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :: Meet requirement of 1st NormalForm and
+Remove columns which create duplicate data in a table and create a new table with Primary Key – Foreign Key relationship.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 NormalForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :: Meet all the requirements of the second normal form.
+•         Remove columns that are not dependent upon the primary key.</t>
+    </r>
+  </si>
+  <si>
+    <t>MERGE statement</t>
+  </si>
+  <si>
+    <t>This statement allows conditional update or insertion of data into a table. It performs an UPDATE if a row exists, or an INSERT if the row does not exist.</t>
+  </si>
+  <si>
+    <t>Single() / SingleOrDefault()</t>
+  </si>
+  <si>
+    <t>First () / FirstOrDefault()</t>
+  </si>
+  <si>
+    <r>
+      <t>Single()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> - There is exactly 1 result, an exception is thrown if no result is returned or more than one result. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SingleOrDefault()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> – Same as Single(), but it can handle the null value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>First()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> - There is at least one result, an exception is thrown if no result is returned.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FirstOrDefault()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> - Same as First(), but not thrown any exception or return null when there is no result.</t>
+    </r>
+  </si>
+  <si>
+    <t>Single() asserts that one and only one element exists in the sequence.</t>
+  </si>
+  <si>
+    <t>First() simply gives you the first one.</t>
+  </si>
+  <si>
+    <t>When to use</t>
+  </si>
+  <si>
+    <t>Use Single / SingleOrDefault() when you sure there is only one record present in database or you can say if you querying on database with help of primary key of table.</t>
+  </si>
+  <si>
+    <t>Developer may use First () / FirstOrDefault() anywhere,  when they required single value from collection or database.</t>
+  </si>
+  <si>
+    <t>Single() or SingleOrDefault() will generate a regular TSQL like "SELECT ...".</t>
+  </si>
+  <si>
+    <t>The First() or FirstOrDefault() method will generate the TSQL statment like "SELECT TOP 1..."</t>
+  </si>
+  <si>
+    <t>In the case of Fist / FirstOrDefault, only one row is retrieved from the database so it performs slightly better than single / SingleOrDefault. such a small difference is hardly noticeable but when table contain large number of column and row, at this time performance is noticeable.</t>
+  </si>
+  <si>
+    <t>What is model binder in .net core</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UL2XHN6uJCg&amp;list=PLAE7FECFFFCBE1A54&amp;index=1</t>
+  </si>
+  <si>
+    <t>Why delegates are created?</t>
+  </si>
+  <si>
+    <t>Normal methodas are not allow to pass any code to some methods it accepts only some type of parameters like int, string etc. But by using Delegates we can pass whole method to any function who is having delegate as a parameter.
+We can pass lambda expression also insted of method to the delegate.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IQueryable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;MyData&gt; source = ...
+var filtered = source.Where(row =&gt; row.Name == "fred");
+In this case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> query uses the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fun&lt;&gt; delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to get the expression/logic.</t>
+    </r>
+  </si>
+  <si>
+    <t>Srot string using list&lt;string&gt; without using sort() method</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZcHPvb83O38</t>
+  </si>
+  <si>
+    <t>https://programmingwithmosh.com/net/csharp-collections/#:~:text=HashSet&amp;text=Use%20a%20HashSet%20when%20you,a%20unique%20list%20of%20items.</t>
+  </si>
+  <si>
+    <t>Semaphore</t>
+  </si>
+  <si>
+    <t>Thread.lock</t>
+  </si>
+  <si>
+    <t>it also locks the thread but thread is called from out side the application. Like the if someone runs the same exe multiple time and we want to block the user to run it multiple time then we use Mutex.</t>
+  </si>
+  <si>
+    <t>it locks the thread to run one at a time within the application.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tphdNUTwk9U</t>
+  </si>
+  <si>
+    <t>Moniter</t>
+  </si>
+  <si>
+    <t>Moniter is nothing but a thread.lock. It is a old representation on Lock method.</t>
+  </si>
+  <si>
+    <t>It works same as Mutex but it can allow to enable howmany thread can run at a time. Like user can run the exe 2 time or 3 times at a same time.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8994,6 +9199,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -9051,7 +9269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -9534,6 +9752,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9542,7 +9843,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9765,6 +10066,51 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10152,120 +10498,120 @@
     </row>
     <row r="3" spans="1:3" ht="144">
       <c r="A3" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="115.2">
       <c r="A9" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.4">
       <c r="A11" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="100.8">
       <c r="A17" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72">
       <c r="A21" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2">
       <c r="A25" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -10302,13 +10648,13 @@
     </row>
     <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
@@ -10320,155 +10666,155 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4">
+      <c r="A8" s="95"/>
+      <c r="B8" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="86.4">
-      <c r="A8" s="80"/>
-      <c r="B8" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8">
       <c r="A21" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8">
       <c r="A22" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="57.6">
-      <c r="A27" s="79" t="s">
-        <v>289</v>
+      <c r="A27" s="94" t="s">
+        <v>288</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="57.6">
+      <c r="A28" s="95"/>
+      <c r="B28" s="15" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="57.6">
-      <c r="A28" s="80"/>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -10531,7 +10877,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -10570,7 +10916,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
@@ -10599,18 +10945,18 @@
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>497</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6">
       <c r="B12" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10618,21 +10964,21 @@
     </row>
     <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1">
       <c r="A16" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>503</v>
-      </c>
       <c r="C16" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -10661,17 +11007,17 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10692,7 +11038,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10793,18 +11139,18 @@
         <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="C7" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10819,41 +11165,41 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8">
       <c r="A21" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10861,94 +11207,94 @@
     </row>
     <row r="23" spans="1:4" ht="72">
       <c r="A23" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54.6">
       <c r="A26" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57.6">
       <c r="A32" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>207</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8">
       <c r="A33" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="43.2">
       <c r="A37" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="187.2">
       <c r="A39" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -10962,10 +11308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10988,10 +11334,10 @@
     </row>
     <row r="3" spans="1:3" ht="230.4">
       <c r="A3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11000,10 +11346,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11012,10 +11358,15 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -11026,11 +11377,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11056,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1">
@@ -11077,37 +11428,120 @@
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
       <c r="A16" s="25"/>
     </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="89" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+    </row>
+    <row r="19" spans="2:3" ht="15" thickBot="1">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+    </row>
+    <row r="20" spans="2:3" ht="30">
+      <c r="B20" s="81" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="79"/>
+      <c r="C21" s="83"/>
+    </row>
+    <row r="22" spans="2:3" ht="45.6" thickBot="1">
+      <c r="B22" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.6" thickBot="1">
+      <c r="B23" s="85" t="s">
+        <v>546</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15">
+      <c r="B24" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="79"/>
+      <c r="C25" s="83"/>
+    </row>
+    <row r="26" spans="2:3" ht="45.6" thickBot="1">
+      <c r="B26" s="85" t="s">
+        <v>549</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="30.6" thickBot="1">
+      <c r="B27" s="85" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="30" customHeight="1" thickBot="1">
+      <c r="B28" s="92" t="s">
+        <v>553</v>
+      </c>
+      <c r="C28" s="93"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B28:C28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11115,11 +11549,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11144,23 +11578,23 @@
     </row>
     <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="95.4" customHeight="1">
@@ -11168,10 +11602,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>9</v>
@@ -11192,13 +11626,13 @@
     </row>
     <row r="12" spans="1:4" ht="129.6">
       <c r="A12" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58.5" customHeight="1">
@@ -11206,15 +11640,15 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8">
@@ -11225,21 +11659,21 @@
         <v>42</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>521</v>
-      </c>
       <c r="D18" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2">
@@ -11247,10 +11681,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6">
@@ -11258,10 +11692,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>523</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72">
@@ -11269,10 +11703,10 @@
         <v>80</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6">
@@ -11280,10 +11714,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="107.4" customHeight="1">
@@ -11291,10 +11725,10 @@
         <v>81</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="130.5" customHeight="1">
@@ -11302,21 +11736,21 @@
         <v>84</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="130.5" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="115.2">
@@ -11324,7 +11758,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="57.6">
@@ -11332,10 +11766,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="72">
@@ -11343,7 +11777,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11362,304 +11796,358 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8">
+    <row r="32" spans="1:4" ht="42.75" customHeight="1"/>
+    <row r="33" spans="1:5" ht="86.4">
       <c r="A33" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8">
+      <c r="A35" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="86.4">
-      <c r="A35" s="25" t="s">
-        <v>395</v>
-      </c>
       <c r="B35" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="86.4">
+      <c r="A37" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B37" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="115.2">
-      <c r="A37" s="25" t="s">
+      <c r="C37" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="115.2">
+      <c r="A39" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="B39" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E39" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="100.8">
-      <c r="A38" s="25" t="s">
+    <row r="40" spans="1:5" ht="100.8">
+      <c r="A40" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="158.4">
-      <c r="A39" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="129.6">
+      <c r="B40" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="158.4">
       <c r="A41" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="129.6">
+      <c r="A43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="115.2">
-      <c r="A42" s="25" t="s">
+    <row r="44" spans="1:5" ht="115.2">
+      <c r="A44" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="25" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8">
+      <c r="A47" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2">
+      <c r="A48" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="69" t="s">
+      <c r="B48" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="43.2">
+      <c r="A49" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" ht="27.6">
+      <c r="A53" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="29"/>
-    </row>
-    <row r="49" spans="1:3" ht="27.6">
-      <c r="A49" s="71" t="s">
+      <c r="B53" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="C53" s="29"/>
+    </row>
+    <row r="54" spans="1:3" ht="27.6">
+      <c r="A54" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="29"/>
-    </row>
-    <row r="50" spans="1:3" ht="27.6">
-      <c r="A50" s="71" t="s">
+      <c r="B54" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="C54" s="29"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="29"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="71" t="s">
+      <c r="B55" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="C55" s="29"/>
+    </row>
+    <row r="56" spans="1:3" ht="27.6">
+      <c r="A56" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="29"/>
-    </row>
-    <row r="52" spans="1:3" ht="27.6">
-      <c r="A52" s="71" t="s">
+      <c r="B56" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="C56" s="29"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="29"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="71" t="s">
+      <c r="B57" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="C57" s="29"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="75" t="s">
+      <c r="B58" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="29"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="29"/>
-    </row>
-    <row r="56" spans="1:3" ht="28.8">
-      <c r="A56" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="C56" s="29"/>
-    </row>
-    <row r="58" spans="1:3" ht="28.8">
-      <c r="A58" s="25" t="s">
+      <c r="C58" s="29"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="77"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="29"/>
+    </row>
+    <row r="60" spans="1:3" ht="28.8">
+      <c r="A60" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="62" spans="1:3" ht="28.8">
+      <c r="A62" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A60" s="25" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="127.5" customHeight="1">
+      <c r="A64" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="43.2">
-      <c r="A62" s="25" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="43.2">
+      <c r="A66" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="72">
+      <c r="A68" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="72">
-      <c r="A64" s="25" t="s">
+      <c r="B68" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8">
+      <c r="A70" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="28.8">
-      <c r="A66" s="25" t="s">
+      <c r="B70" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="57.6">
-      <c r="A68" s="25" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="57.6">
+      <c r="A72" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="259.2">
+      <c r="A74" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="86.4">
+      <c r="A78" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="259.2">
-      <c r="A70" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C70" s="15" t="s">
+      <c r="B78" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
+    <row r="80" spans="1:3" ht="28.8">
+      <c r="A80" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="43.2">
+      <c r="A82" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.2">
+      <c r="A86" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
+    <row r="88" spans="1:2" ht="43.2">
+      <c r="A88" s="25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="86.4">
-      <c r="A74" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="25" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="43.2">
-      <c r="A81" s="25" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="43.2">
-      <c r="A83" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="57.6">
-      <c r="A87" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>505</v>
+    <row r="90" spans="1:2">
+      <c r="A90" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="57.6">
+      <c r="A92" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B33" r:id="rId3" xr:uid="{1DB1D179-E8C3-4429-8C7A-6AB514BCEAD3}"/>
-    <hyperlink ref="B35" r:id="rId4" xr:uid="{96B5D1D9-FAE0-455D-A6BD-8F8C516948C6}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{1DB1D179-E8C3-4429-8C7A-6AB514BCEAD3}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{96B5D1D9-FAE0-455D-A6BD-8F8C516948C6}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{25686889-133F-46D4-9BBE-15B98084E77A}"/>
+    <hyperlink ref="B80" r:id="rId6" xr:uid="{8A296D3F-3ECD-4E58-A6B8-AF2203F14FE0}"/>
+    <hyperlink ref="B82" r:id="rId7" location=":~:text=HashSet&amp;text=Use%20a%20HashSet%20when%20you,a%20unique%20list%20of%20items." xr:uid="{A0BA02C6-61DD-4158-95E0-FFE3583ED182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -11691,59 +12179,59 @@
     </row>
     <row r="3" spans="1:3" ht="57.6">
       <c r="A3" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>396</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8">
       <c r="A5" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4">
       <c r="A7" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>404</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
       <c r="A9" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8">
       <c r="A11" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>409</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -11754,11 +12242,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11792,18 +12280,18 @@
     </row>
     <row r="4" spans="1:3" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
       <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6">
@@ -11811,7 +12299,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>351</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144">
@@ -11822,7 +12310,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.8">
@@ -11840,33 +12328,41 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6">
       <c r="A14" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="144">
       <c r="B18" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.2">
+      <c r="A22" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -11902,10 +12398,10 @@
     </row>
     <row r="2" spans="1:3" ht="187.2">
       <c r="A2" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="259.2">
@@ -11913,88 +12409,88 @@
         <v>7</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="216">
       <c r="A6" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="216">
       <c r="A7" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="115.2">
       <c r="A8" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="79" t="s">
-        <v>306</v>
+      <c r="A10" s="94" t="s">
+        <v>305</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2">
+      <c r="A11" s="95"/>
+      <c r="B11" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.2">
-      <c r="A11" s="80"/>
-      <c r="B11" s="15" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="100.8">
-      <c r="A13" s="79" t="s">
-        <v>209</v>
+      <c r="A13" s="94" t="s">
+        <v>208</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="129.6">
+      <c r="A14" s="95"/>
+      <c r="B14" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="129.6">
-      <c r="A14" s="80"/>
-      <c r="B14" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8">
       <c r="A16" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12002,98 +12498,98 @@
     </row>
     <row r="19" spans="1:4" ht="43.2">
       <c r="A19" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="187.2">
       <c r="A21" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144">
       <c r="A23" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="144">
       <c r="A25" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="144">
       <c r="A27" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>423</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2">
       <c r="A29" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>429</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="201.6">
       <c r="A31" s="53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="115.2">
       <c r="A32" s="53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="201.6">
       <c r="A33" s="53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12101,190 +12597,190 @@
     </row>
     <row r="36" spans="1:3" ht="129.6">
       <c r="A36" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="72">
       <c r="A38" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
       <c r="A40" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>235</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="158.4">
       <c r="A42" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>376</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.2">
       <c r="A44" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.2">
       <c r="A46" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="43.2">
       <c r="A50" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>362</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="86.4">
       <c r="A55" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="129.6">
       <c r="A57" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="189" customHeight="1">
       <c r="A59" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="100.8">
       <c r="A61" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8">
       <c r="A65" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="129.6">
       <c r="A67" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="409.6">
       <c r="A69" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>442</v>
-      </c>
       <c r="D69" s="68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -12337,11 +12833,11 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -12351,22 +12847,22 @@
         <v>36</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="85"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="85"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
@@ -12381,7 +12877,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="39" t="s">
         <v>32</v>
       </c>
@@ -12396,7 +12892,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="85"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
@@ -12411,7 +12907,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="86"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="40" t="s">
         <v>29</v>
       </c>
@@ -12429,7 +12925,7 @@
       <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="94" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="42" t="s">
@@ -12437,23 +12933,23 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="83"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="83"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="83"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="80"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="44" t="s">
         <v>40</v>
       </c>
@@ -12514,7 +13010,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12539,263 +13035,263 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="100.8">
       <c r="A28" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="86.4">
       <c r="A29" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>170</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="87" t="s">
+      <c r="B32" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="47" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="103"/>
+      <c r="B33" s="48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="88"/>
-      <c r="B33" s="48" t="s">
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="103"/>
+      <c r="B34" s="48" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="88"/>
-      <c r="B34" s="48" t="s">
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="103"/>
+      <c r="B35" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="88"/>
-      <c r="B35" s="48" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="104"/>
+      <c r="B36" s="49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="89"/>
-      <c r="B36" s="49" t="s">
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="102" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="87" t="s">
+      <c r="B37" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="47" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="104"/>
+      <c r="B38" s="49" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="89"/>
-      <c r="B38" s="49" t="s">
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="102" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="87" t="s">
+      <c r="B39" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="47" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="103"/>
+      <c r="B40" s="48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="88"/>
-      <c r="B40" s="48" t="s">
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="104"/>
+      <c r="B41" s="49" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="89"/>
-      <c r="B41" s="49" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="50" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="102" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="87" t="s">
+      <c r="B43" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="47" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="104"/>
+      <c r="B44" s="49" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="89"/>
-      <c r="B44" s="49" t="s">
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="102" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="87" t="s">
+      <c r="B45" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="47" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="104"/>
+      <c r="B46" s="49" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="89"/>
-      <c r="B46" s="49" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="50" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="102" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="87" t="s">
+      <c r="B48" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="47" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="108"/>
+      <c r="B49" s="49" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="93"/>
-      <c r="B49" s="49" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" s="56" t="s">
         <v>291</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="22.8">
       <c r="A55" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="23.4" thickBot="1">
       <c r="A56" s="59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="B57" s="105" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="B58" s="91"/>
+        <v>297</v>
+      </c>
+      <c r="B58" s="106"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="B59" s="92"/>
+        <v>298</v>
+      </c>
+      <c r="B59" s="107"/>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="60" t="s">
         <v>301</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="129.6">
       <c r="A64" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>310</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="43.2">
       <c r="A68" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="43.2">
       <c r="A69" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:2">

--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBE255-7E87-449B-807D-AB653C1396CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1DEEDF-6967-42B8-BBA5-DD44D4878081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="572">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -601,29 +601,6 @@
     <t>http://a4academics.com/interview-questions/52-dot-net-interview-questions/713-asp-net-mvc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Locking in thread</t>
-    </r>
-  </si>
-  <si>
     <t>http://www.c-sharpcorner.com/UploadFile/udeshikah/working-of-garbage-collector-part-i/</t>
   </si>
   <si>
@@ -8631,53 +8608,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">An argument passed as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ref must be initialized before passing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the method whereas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>out parameter needs not to be initialized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> before passing to a method.</t>
-    </r>
-  </si>
-  <si>
     <t>. If my code calls Dispose() then there is no reason for the Finalizer to run at all. 
 . With SupressFinalize() we can just call SuppressFinalize() from within Dispose() and that will tell .NET to not run the Finalize method when it gets to our object and GC reclaim the managed and unmanaged memory in one go.</t>
   </si>
@@ -8852,7 +8782,47 @@
     <t>Why delegates are created?</t>
   </si>
   <si>
-    <t>Normal methodas are not allow to pass any code to some methods it accepts only some type of parameters like int, string etc. But by using Delegates we can pass whole method to any function who is having delegate as a parameter.
+    <t>Srot string using list&lt;string&gt; without using sort() method</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZcHPvb83O38</t>
+  </si>
+  <si>
+    <t>https://programmingwithmosh.com/net/csharp-collections/#:~:text=HashSet&amp;text=Use%20a%20HashSet%20when%20you,a%20unique%20list%20of%20items.</t>
+  </si>
+  <si>
+    <t>Semaphore</t>
+  </si>
+  <si>
+    <t>Thread.lock</t>
+  </si>
+  <si>
+    <t>it also locks the thread but thread is called from out side the application. Like the if someone runs the same exe multiple time and we want to block the user to run it multiple time then we use Mutex.</t>
+  </si>
+  <si>
+    <t>it locks the thread to run one at a time within the application.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tphdNUTwk9U</t>
+  </si>
+  <si>
+    <t>Moniter</t>
+  </si>
+  <si>
+    <t>Moniter is nothing but a thread.lock. It is a old representation on Lock method.</t>
+  </si>
+  <si>
+    <t>It works same as Mutex but it can allow to enable howmany thread can run at a time. Like user can run the exe 2 time or 3 times at a same time.</t>
+  </si>
+  <si>
+    <t>$(document).ready()</t>
+  </si>
+  <si>
+    <t>it is a starting point of jquery. It executes when DOM is loaded.
+We can have any number of document.ready() function in same the page.</t>
+  </si>
+  <si>
+    <t>Normal methodas are not allow to pass any code to some methods it accepts only some type of parameters like int, string, employee etc. But by using Delegates we can pass whole method to any function who is having delegate as a parameter.
 We can pass lambda expression also insted of method to the delegate.</t>
   </si>
   <si>
@@ -8860,7 +8830,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8876,20 +8846,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&lt;MyData&gt; source = ...
+      <t>&lt;MyData&gt; source = ...
 var filtered = source.Where(row =&gt; row.Name == "fred");
-In this case </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINQ</t>
+In this case</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LINQ</t>
     </r>
     <r>
       <rPr>
@@ -8906,7 +8876,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8926,37 +8896,150 @@
     </r>
   </si>
   <si>
-    <t>Srot string using list&lt;string&gt; without using sort() method</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZcHPvb83O38</t>
-  </si>
-  <si>
-    <t>https://programmingwithmosh.com/net/csharp-collections/#:~:text=HashSet&amp;text=Use%20a%20HashSet%20when%20you,a%20unique%20list%20of%20items.</t>
-  </si>
-  <si>
-    <t>Semaphore</t>
-  </si>
-  <si>
-    <t>Thread.lock</t>
-  </si>
-  <si>
-    <t>it also locks the thread but thread is called from out side the application. Like the if someone runs the same exe multiple time and we want to block the user to run it multiple time then we use Mutex.</t>
-  </si>
-  <si>
-    <t>it locks the thread to run one at a time within the application.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tphdNUTwk9U</t>
-  </si>
-  <si>
-    <t>Moniter</t>
-  </si>
-  <si>
-    <t>Moniter is nothing but a thread.lock. It is a old representation on Lock method.</t>
-  </si>
-  <si>
-    <t>It works same as Mutex but it can allow to enable howmany thread can run at a time. Like user can run the exe 2 time or 3 times at a same time.</t>
+    <t>static void Main(string[] args)
+{         // ref example
+           string str = "sameer";
+            RefExample(ref str);
+          // out example
+            string str1;
+            outExample(out str1);
+            Console.WriteLine(str1);
+}
+        private static void outExample(out string str1)
+        {          str1 = "Out example";         }
+        public static void RefExample(ref string str)
+        {         str = "sameer"; 
+           Console.WriteLine(str);
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Variable pass as a ref parameter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must be declare and initialize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before passing to ref as a parameter.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: variable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must be declare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assignment is not necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before passing to out parameter. But</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it must be assign some value before returnin to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calling function.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9024,13 +9107,6 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -9211,6 +9287,14 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -9838,7 +9922,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -9914,8 +9998,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9931,7 +10015,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9970,125 +10054,107 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10097,19 +10163,37 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10117,6 +10201,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10135,27 +10240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10474,8 +10558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10498,120 +10582,120 @@
     </row>
     <row r="3" spans="1:3" ht="144">
       <c r="A3" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="115.2">
       <c r="A9" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.4">
       <c r="A11" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>337</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="100.8">
       <c r="A17" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72">
       <c r="A21" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2">
       <c r="A25" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>453</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>456</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10622,10 +10706,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10648,173 +10732,181 @@
     </row>
     <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
       <c r="A5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2">
       <c r="A7" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4">
       <c r="A8" s="95"/>
       <c r="B8" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8">
       <c r="A21" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8">
       <c r="A22" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="57.6">
       <c r="A27" s="94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6">
       <c r="A28" s="95"/>
       <c r="B28" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>325</v>
+    </row>
+    <row r="33" spans="1:2" ht="43.2">
+      <c r="A33" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -10842,42 +10934,42 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -10913,50 +11005,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
       <c r="A5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2">
       <c r="A9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>493</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6">
       <c r="B12" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10964,21 +11056,21 @@
     </row>
     <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>497</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1">
       <c r="A16" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>499</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -10999,25 +11091,25 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11025,20 +11117,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11078,22 +11170,22 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -11110,8 +11202,8 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11139,67 +11231,67 @@
         <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="C7" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8">
       <c r="A21" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11207,94 +11299,94 @@
     </row>
     <row r="23" spans="1:4" ht="72">
       <c r="A23" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54.6">
       <c r="A26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57.6">
       <c r="A32" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>206</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8">
       <c r="A33" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="43.2">
       <c r="A37" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="187.2">
       <c r="A39" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -11334,10 +11426,10 @@
     </row>
     <row r="3" spans="1:3" ht="230.4">
       <c r="A3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11346,10 +11438,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11358,15 +11450,15 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -11407,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1">
@@ -11417,10 +11509,10 @@
     </row>
     <row r="6" spans="1:3" ht="100.8">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="115.2">
@@ -11428,31 +11520,31 @@
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>464</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1">
@@ -11460,10 +11552,10 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="89" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C17" s="89" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -11476,10 +11568,10 @@
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="81" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="82" t="s">
         <v>542</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -11488,26 +11580,26 @@
     </row>
     <row r="22" spans="2:3" ht="45.6" thickBot="1">
       <c r="B22" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C22" s="84" t="s">
         <v>543</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.6" thickBot="1">
       <c r="B23" s="85" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C23" s="86" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15">
       <c r="B24" s="87" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -11516,23 +11608,23 @@
     </row>
     <row r="26" spans="2:3" ht="45.6" thickBot="1">
       <c r="B26" s="85" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C26" s="86" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30.6" thickBot="1">
       <c r="B27" s="85" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C27" s="86" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" customHeight="1" thickBot="1">
       <c r="B28" s="92" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C28" s="93"/>
     </row>
@@ -11552,8 +11644,8 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11578,23 +11670,23 @@
     </row>
     <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="95.4" customHeight="1">
@@ -11602,10 +11694,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>9</v>
@@ -11626,13 +11718,13 @@
     </row>
     <row r="12" spans="1:4" ht="129.6">
       <c r="A12" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>451</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58.5" customHeight="1">
@@ -11640,15 +11732,15 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8">
@@ -11659,21 +11751,21 @@
         <v>42</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>517</v>
-      </c>
       <c r="C18" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2">
@@ -11681,10 +11773,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6">
@@ -11692,65 +11784,65 @@
         <v>44</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72">
       <c r="A21" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6">
       <c r="A22" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="107.4" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="130.5" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="130.5" customHeight="1">
       <c r="A25" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>533</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="115.2">
@@ -11758,166 +11850,161 @@
         <v>48</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="57.6">
       <c r="A28" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>509</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="72">
       <c r="A29" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="25" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="42.75" customHeight="1">
       <c r="A31" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="42.75" customHeight="1"/>
     <row r="33" spans="1:5" ht="86.4">
       <c r="A33" s="25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8">
       <c r="A35" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="86.4">
       <c r="A37" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="115.2">
       <c r="A39" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="100.8">
       <c r="A40" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="158.4">
       <c r="A41" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>491</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="129.6">
       <c r="A43" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="115.2">
       <c r="A44" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.8">
       <c r="A47" s="25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.2">
       <c r="A48" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="43.2">
       <c r="A49" s="25" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1">
@@ -11926,64 +12013,64 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="70" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>134</v>
       </c>
       <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3" ht="27.6">
       <c r="A53" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="72" t="s">
         <v>135</v>
-      </c>
-      <c r="B53" s="72" t="s">
-        <v>136</v>
       </c>
       <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3" ht="27.6">
       <c r="A54" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="72" t="s">
         <v>137</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>138</v>
       </c>
       <c r="C54" s="29"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="72" t="s">
         <v>139</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>140</v>
       </c>
       <c r="C55" s="29"/>
     </row>
     <row r="56" spans="1:3" ht="27.6">
       <c r="A56" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="73" t="s">
         <v>141</v>
-      </c>
-      <c r="B56" s="73" t="s">
-        <v>142</v>
       </c>
       <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="73" t="s">
         <v>143</v>
-      </c>
-      <c r="B57" s="73" t="s">
-        <v>144</v>
       </c>
       <c r="C57" s="29"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="76" t="s">
         <v>145</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>146</v>
       </c>
       <c r="C58" s="29"/>
     </row>
@@ -11994,146 +12081,149 @@
     </row>
     <row r="60" spans="1:3" ht="28.8">
       <c r="A60" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="29"/>
     </row>
     <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="127.5" customHeight="1">
       <c r="A64" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="43.2">
+    </row>
+    <row r="66" spans="1:3" ht="88.2" customHeight="1">
       <c r="A66" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>535</v>
+        <v>571</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="72">
       <c r="A68" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8">
       <c r="A70" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="57.6">
       <c r="A72" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="259.2">
       <c r="A74" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="86.4">
       <c r="A78" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8">
       <c r="A80" s="25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="43.2">
       <c r="A82" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="43.2">
       <c r="A86" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="43.2">
       <c r="A88" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="57.6">
       <c r="A92" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>502</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -12179,59 +12269,59 @@
     </row>
     <row r="3" spans="1:3" ht="57.6">
       <c r="A3" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8">
       <c r="A5" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4">
       <c r="A7" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
       <c r="A9" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8">
       <c r="A11" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -12272,26 +12362,26 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
       <c r="A5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6">
@@ -12299,7 +12389,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144">
@@ -12310,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.8">
@@ -12323,46 +12413,46 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6">
       <c r="A14" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="144">
       <c r="B18" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2">
       <c r="A22" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -12398,10 +12488,10 @@
     </row>
     <row r="2" spans="1:3" ht="187.2">
       <c r="A2" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="259.2">
@@ -12409,88 +12499,88 @@
         <v>7</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="216">
       <c r="A6" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="216">
       <c r="A7" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="115.2">
       <c r="A8" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2">
       <c r="A10" s="94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2">
       <c r="A11" s="95"/>
       <c r="B11" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="100.8">
       <c r="A13" s="94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="129.6">
       <c r="A14" s="95"/>
       <c r="B14" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8">
       <c r="A16" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12498,98 +12588,98 @@
     </row>
     <row r="19" spans="1:4" ht="43.2">
       <c r="A19" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="187.2">
       <c r="A21" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144">
       <c r="A23" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="144">
       <c r="A25" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>418</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="144">
       <c r="A27" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>421</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2">
       <c r="A29" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="201.6">
       <c r="A31" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="D31" s="67" t="s">
         <v>425</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="115.2">
       <c r="A32" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="201.6">
       <c r="A33" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>388</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12597,190 +12687,190 @@
     </row>
     <row r="36" spans="1:3" ht="129.6">
       <c r="A36" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="72">
       <c r="A38" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
       <c r="A40" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="158.4">
       <c r="A42" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.2">
       <c r="A44" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.2">
       <c r="A46" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="43.2">
       <c r="A50" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>363</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>367</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="86.4">
       <c r="A55" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="129.6">
       <c r="A57" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="189" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="100.8">
       <c r="A61" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8">
       <c r="A65" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>414</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="129.6">
       <c r="A67" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="409.6">
       <c r="A69" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>440</v>
-      </c>
       <c r="D69" s="68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -12833,11 +12923,11 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -12847,22 +12937,22 @@
         <v>36</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="100"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
@@ -12877,7 +12967,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="39" t="s">
         <v>32</v>
       </c>
@@ -12892,7 +12982,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="100"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
@@ -12907,7 +12997,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="101"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="40" t="s">
         <v>29</v>
       </c>
@@ -12933,17 +13023,17 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="98"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="98"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="98"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
@@ -12960,49 +13050,49 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="86.4">
@@ -13010,7 +13100,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13030,268 +13120,268 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="100.8">
       <c r="A28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="86.4">
       <c r="A29" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>169</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="102" t="s">
+      <c r="B32" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="47" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="100"/>
+      <c r="B33" s="48" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="103"/>
-      <c r="B33" s="48" t="s">
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="100"/>
+      <c r="B34" s="48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="103"/>
-      <c r="B34" s="48" t="s">
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="100"/>
+      <c r="B35" s="48" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="103"/>
-      <c r="B35" s="48" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="101"/>
+      <c r="B36" s="49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="104"/>
-      <c r="B36" s="49" t="s">
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="99" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="102" t="s">
+      <c r="B37" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="47" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="101"/>
+      <c r="B38" s="49" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="104"/>
-      <c r="B38" s="49" t="s">
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="99" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="102" t="s">
+      <c r="B39" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="47" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="100"/>
+      <c r="B40" s="48" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="103"/>
-      <c r="B40" s="48" t="s">
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="101"/>
+      <c r="B41" s="49" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="104"/>
-      <c r="B41" s="49" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="50" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="99" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="102" t="s">
+      <c r="B43" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="47" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="101"/>
+      <c r="B44" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="104"/>
-      <c r="B44" s="49" t="s">
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="99" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="102" t="s">
+      <c r="B45" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="47" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="101"/>
+      <c r="B46" s="49" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="104"/>
-      <c r="B46" s="49" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="50" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="99" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="102" t="s">
+      <c r="B48" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="47" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="102"/>
+      <c r="B49" s="49" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="108"/>
-      <c r="B49" s="49" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54" s="56" t="s">
         <v>290</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="22.8">
       <c r="A55" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="23.4" thickBot="1">
       <c r="A56" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="105" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="B58" s="106"/>
+        <v>296</v>
+      </c>
+      <c r="B58" s="97"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="B59" s="107"/>
+        <v>297</v>
+      </c>
+      <c r="B59" s="98"/>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="60" t="s">
         <v>300</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="62" t="s">
         <v>302</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="129.6">
       <c r="A64" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="43.2">
       <c r="A68" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="43.2">
       <c r="A69" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -13300,16 +13390,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>

--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1DEEDF-6967-42B8-BBA5-DD44D4878081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC249BEA-C725-4037-90DF-196917EDD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASP.net" sheetId="11" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="OOP's" sheetId="3" r:id="rId5"/>
     <sheet name="Javascrpit" sheetId="13" r:id="rId6"/>
     <sheet name="SQL" sheetId="4" r:id="rId7"/>
-    <sheet name="Angular" sheetId="5" r:id="rId8"/>
-    <sheet name="WCF" sheetId="6" r:id="rId9"/>
-    <sheet name="Jquery" sheetId="8" r:id="rId10"/>
-    <sheet name="Other topics" sheetId="9" r:id="rId11"/>
-    <sheet name="Entity framework" sheetId="10" r:id="rId12"/>
-    <sheet name="Links to study" sheetId="7" r:id="rId13"/>
+    <sheet name=".net Core" sheetId="14" r:id="rId8"/>
+    <sheet name="Angular" sheetId="5" r:id="rId9"/>
+    <sheet name="WCF" sheetId="6" r:id="rId10"/>
+    <sheet name="Jquery" sheetId="8" r:id="rId11"/>
+    <sheet name="Other topics" sheetId="9" r:id="rId12"/>
+    <sheet name="Entity framework" sheetId="10" r:id="rId13"/>
+    <sheet name="Links to study" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="656">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -1129,79 +1130,6 @@
     <t>Select Top 5th row</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SELECT TOP 1 T.* FROM 
-(SELECT TOP 5 * FROM DBT_Person </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORDER BY AGE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) AS T
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORDER BY T.AGE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DESC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>Preprocessor Directives in C#</t>
   </si>
   <si>
@@ -8773,9 +8701,6 @@
     <t>In the case of Fist / FirstOrDefault, only one row is retrieved from the database so it performs slightly better than single / SingleOrDefault. such a small difference is hardly noticeable but when table contain large number of column and row, at this time performance is noticeable.</t>
   </si>
   <si>
-    <t>What is model binder in .net core</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=UL2XHN6uJCg&amp;list=PLAE7FECFFFCBE1A54&amp;index=1</t>
   </si>
   <si>
@@ -9041,12 +8966,1471 @@
       <t xml:space="preserve"> calling function.</t>
     </r>
   </si>
+  <si>
+    <t>OLTP vs OLAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLTP (Online Transaction Processing) in this case database is used for highly intense system where you can Insert/Update/Delete the record.
+OLAP (Online Analytic Processing) in this case database is design for performing fetching the record, doing analysis, doing read or doing select operations. Mostly used for reporting purpose. </t>
+  </si>
+  <si>
+    <t>Char vs Varchar</t>
+  </si>
+  <si>
+    <t>Char(3) always use 3 character space memory.
+Varchar(10) use only the ampunt space in memmory which required by string even if it is only character then it took 1 character memory.</t>
+  </si>
+  <si>
+    <t>Function vs Storeprocedure</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Storeprocedure</t>
+  </si>
+  <si>
+    <t>Function uses to calculate the data or do some business logics</t>
+  </si>
+  <si>
+    <t>It is used to perform Insert/Update/Delete operations</t>
+  </si>
+  <si>
+    <t>It can be call from select, where or any storeprocedure.</t>
+  </si>
+  <si>
+    <t>It cannot be execute from select/where or any functions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It can have Zero or multiple </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as well as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter.</t>
+    </r>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: This triggers is used if we want to do some operation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert/Update/Delete records on table. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Instead Off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: This triggers is used if we want to do some operations </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Insert/Update/Delete on table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Begin Try
+   Begin Tran
+      Insert into …
+   Commit Tran
+End Try
+Begin Catch
+    Rollback
+End Catch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT TOP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> T.* FROM 
+(SELECT TOP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * FROM DBT_Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORDER BY AGE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) AS T
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORDER BY T.AGE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>WITH CTE AS
+(
+    SELECT EmpID,EmpName,EmpSalar,
+           RN = DENSE_RANK() OVER (ORDER BY EmpSalary DESC)
+    FROM dbo.Salary
+)
+SELECT EmpID,EmpName,EmpSalar
+FROM CTE
+WHERE RN = @NthRow</t>
+  </si>
+  <si>
+    <t>with EmployeeCTE as
+( Select * from employee)
+Select * From EmployeeCTE</t>
+  </si>
+  <si>
+    <t>it may or may not have input parameter.
+It must return Scalar or tabular valued data.</t>
+  </si>
+  <si>
+    <t>Model binder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IModelBinder interface is used to inherit to create Custom Model binder.
+  ModelBinder is to read data from the request. It also used to read the from the headers of request.
+  CustomModel Binder can be used in Acton Paramtere as well as Attribute of the Model.</t>
+  </si>
+  <si>
+    <r>
+      <t>public class MyCustomModelBinder : IModelBinder
+    {
+        public Task BindModelAsync(ModelBindingContext bindingContext)
+        {
+           var v = bindingContext.ValueProvider.GetValue("name");
+            bindingContext.Result = ModelBindingResult.Success(v.ToString());
+            return Task.CompletedTask;
+        } }
+public IActionResult Privacy ([</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ModelBinder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binderType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MyCustomModelBinder))] string strName)
+        {   ...... }</t>
+    </r>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>Status code are divided into 5 category
+1xx  -- Information
+2xx  -- Success
+3xx  -- Redirect
+4xx  -- Client Error
+5xx  -- Server Error</t>
+  </si>
+  <si>
+    <t>200  -- OK
+201  -- New Resource created
+204  -- No Content(Request is successful but not returning any content)
+301  -- Moved Permanently
+302  -- Moved temprorly
+400  -- Bad request
+401  -- Unauthorised
+404  -- Not Found
+405  -- Method not allowed
+500  -- Internal server Error
+503  -- Service not available(ex. down for maintanance)</t>
+  </si>
+  <si>
+    <t>LaunchSettings.json</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "iisSettings": {
+    "windowsAuthentication": false,
+    "anonymousAuthentication": true,
+    "iisExpress": {
+      "applicationUrl": "http://localhost:62025",
+      "sslPort": 0
+    }
+  },
+  "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IIS Express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+      "commandName": "IISExpress",
+      "launchBrowser": true,
+      "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>environmentVariables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+        "ASPNETCORE_ENVIRONMENT": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+      }
+    },
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WebApplication1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+      "commandName": "Project",
+      "launchBrowser": true,
+      "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applicationUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "http://localhost:5000",
+      "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>environmentVariables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+        "ASPNETCORE_ENVIRONMENT": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+      }
+    }
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>This json file is placed inside the Properties Folder.
+This include the launch settings Profile configurations. Like IISExpress is used for default launch setting in visual studio. But if we use console then the other profile which name is based on application name will launch.
+also set the envornment variable.</t>
+  </si>
+  <si>
+    <t>WebHostBuilder</t>
+  </si>
+  <si>
+    <t>This is used to host the application and provide the default app builder</t>
+  </si>
+  <si>
+    <t>CreateDefaultBuilder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> public static IHostBuilder CreateHostBuilder(string[] args) =&gt;
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateDefaultBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(args)
+                .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConfigureWebHostDefaults</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(webBuilder =&gt;
+                {
+                    webBuilder.UseStartup&lt;Startup&gt;();
+                });
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>It provide the featuers like DipendencyInjection, Appsettings.json, Loging.</t>
+  </si>
+  <si>
+    <t>ConfigureWebHostBuilder</t>
+  </si>
+  <si>
+    <t>This method provide HTTP support. 
+It also set the Kestal Server as web server.
+It also Enable the IIS integration</t>
+  </si>
+  <si>
+    <t>StartupClass</t>
+  </si>
+  <si>
+    <t>ConfigureServices</t>
+  </si>
+  <si>
+    <t>Configure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This method is used for DependencyInjection.
+By using the IserviceCollection variable we can implement DipendencyInjection.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can use any name instead of startup class. For this just specify the class name into the Program.cs class.
+There is one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constructore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which is having </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iconfigurations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter.
+2 Methods 
+1.  public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConfigureServices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IServiceCollection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> services) 
+2.public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IApplicationBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> app, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IWebHostEnvironment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> env)</t>
+    </r>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>To add the rounting into the ConfigureMethod we have to add the middleware after that define the routs. 
+app.UseRouting();
+app.UseEndPoints();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> app.UseRouting();
+app.UseEndpoints(endpoints =&gt;
+            {
+                endpoints.MapControllerRoute(
+                    name: "default",
+                    pattern: "{controller=Home}/{action=Index}/{id?}");
+            });</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This method is ued the add the functionality into the HTTP pipeline.
+It is used to add the Middleware.
+It is having 2 parameter 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IApplicationBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : it is used to add/remove the middelware.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IWebHostEnvironment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : it is used to get the details about the Environment(Dev/Stage/Prod).</t>
+    </r>
+  </si>
+  <si>
+    <t>we can use Map() method instead to MapGet() method.
+Map method mapps all the requiest while MapGet() method maps only Get Method.</t>
+  </si>
+  <si>
+    <t>app.UseEndpoints(endpoints =&gt;
+            {
+                endpoints.MapGet("/", async context =&gt;
+                {   await context.Response.WriteAsync("Home");
+                });
+            });</t>
+  </si>
+  <si>
+    <t>Map in Routing</t>
+  </si>
+  <si>
+    <t>app.Map()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we want to add/insert some middleware logic for specific url then we have to use this app.Map() method.
+  Map method is used for branching the pipeline. 
+  It creates a branch of the ASP.NET Core pipeline, based on request path matching. 
+  If request path starts with the given path, middleware on to that branch will execute. If path is not matching then this middleware will not execute. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public void Configure(IApplicationBuilder app)
+ {
+    app.Map("/path1", Middleware1);
+    app.Map("/path2", Middleware2);
+ }</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Middleware is portion of code/logic which can insert the HTTP pipeline.
+App.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() Method is used to add the middleware.
+App.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() Method is used to call the next middleware. If we are creatng the custome Middleware then we must call the Next() middleware at the end of the custome Middleware. Because if we miss this method then next middleware will never call.
+App.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() Method is also used to add the Middleware but it tell the pipeline that it is the last middleware in the pipeline.
+app.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() Method is used to map/call the middleware ap specific url. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Route("policy/api/get-all")]
+ [Route("policy/Getall")]</t>
+  </si>
+  <si>
+    <t>RouteAttribute</t>
+  </si>
+  <si>
+    <t>Token Replacement</t>
+  </si>
+  <si>
+    <t>[Route("[contorller]/[action]")] OR  
+[Route("[action]/[controller]")] 
+In this case controller will replace the controller name and action will replace the action name at runtime.</t>
+  </si>
+  <si>
+    <r>
+      <t>[Route("acitionName")] defined on Action/Method name.
+we can define multiple route for same action.
+We can define the same at controller level with controllername
+If Route attribute is define at controller level and we want some method do not follow that contoller route attribute then use the "~" character before the routename.
+ex. [Route("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~/api/getdata")]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Route("~/AllUsers")]</t>
+    </r>
+  </si>
+  <si>
+    <t>Route Contraint</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NNYf4gPQcqw&amp;list=PLaFzfwmPR7_IPzBR4AI0eoojmIdTFJmHs&amp;index=54</t>
+  </si>
+  <si>
+    <t>Video reference</t>
+  </si>
+  <si>
+    <t>What if token expire while consuming third party API in your application?</t>
+  </si>
+  <si>
+    <t>Refresh tokens are the credentials that can be used to acquire new access tokens. The lifetime of a refresh token is much longer compared to the lifetime of an access token.</t>
+  </si>
+  <si>
+    <t>[NoAction]</t>
+  </si>
+  <si>
+    <t>this attribute isused to block the action method to expose over the enternet</t>
+  </si>
+  <si>
+    <t>local cookie</t>
+  </si>
+  <si>
+    <t>IDP server cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stored </t>
+  </si>
+  <si>
+    <t xml:space="preserve">value type </t>
+  </si>
+  <si>
+    <t>bool, byte, char, decimal, double, enum, float, int, long, sbyte, short, struct, uint, ulong, ushort</t>
+  </si>
+  <si>
+    <t>reference types</t>
+  </si>
+  <si>
+    <t>class, interface, delegate, object, string</t>
+  </si>
+  <si>
+    <t>Memory Allocation</t>
+  </si>
+  <si>
+    <t>Memory allocation is Static</t>
+  </si>
+  <si>
+    <t>Memory allocation is Dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is it Stored? </t>
+  </si>
+  <si>
+    <t>It is stored Directly</t>
+  </si>
+  <si>
+    <t>It is stored indirectly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Variable Resized? </t>
+  </si>
+  <si>
+    <t>Variables can’t be Resized</t>
+  </si>
+  <si>
+    <t>Variables can be Resized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its access is fast </t>
+  </si>
+  <si>
+    <t>Its access is Slow</t>
+  </si>
+  <si>
+    <t>app.UseRouting();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">by using this we can set the type of querystring parameter. Or also can set the querystring parameter minimum, maximum, minlength, maxlength, length, range(2,10), alpha, required, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(expression), .
+[Route("{id: int : min(10) : max(100) : minlength(2)}")]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var _innerJoin = from s in Student </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c in Class 
+              on s.ClassID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c.ID
+             Select new { Class = c.Name,
+                Student = s.Name};
+var _goupJoin = from c in Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s in Student
+                 on c.ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s.ClassID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> groupOfStudent
+             select new {class = c.Name,
+             studentName = groupOfStudent};
+var _leftOuterJoin = from s in Student </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c in Class
+                  on c.ID equals s.ClassID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> groupOfStudent
+                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gc in groupOfStudent.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DefaultIfEmpty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()
+                  Select new{student = s.Name,
+                     class = c == NULL? "No Class" : c.Name
+                    };</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9292,6 +10676,20 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9927,7 +11325,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10180,6 +11578,12 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10558,7 +11962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10582,120 +11986,120 @@
     </row>
     <row r="3" spans="1:3" ht="144">
       <c r="A3" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="115.2">
       <c r="A9" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.4">
       <c r="A11" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="100.8">
       <c r="A17" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72">
       <c r="A21" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2">
       <c r="A25" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -10705,11 +12109,535 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:B71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45" style="25" customWidth="1"/>
+    <col min="2" max="2" width="78" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
+      <c r="A3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="87" thickBot="1">
+      <c r="A4" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="109"/>
+      <c r="B5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A7" s="109"/>
+      <c r="B7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A9" s="110"/>
+      <c r="B9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="107"/>
+      <c r="B12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="107"/>
+      <c r="B13" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" s="107"/>
+      <c r="B14" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="97"/>
+      <c r="B15" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="32"/>
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="86.4">
+      <c r="A22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="100.8">
+      <c r="A28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="86.4">
+      <c r="A29" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="102"/>
+      <c r="B33" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="102"/>
+      <c r="B34" s="48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="102"/>
+      <c r="B35" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="103"/>
+      <c r="B36" s="49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="103"/>
+      <c r="B38" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="102"/>
+      <c r="B40" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="103"/>
+      <c r="B41" s="49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="103"/>
+      <c r="B44" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="103"/>
+      <c r="B46" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="104"/>
+      <c r="B49" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="A54" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="22.8">
+      <c r="A55" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="23.4" thickBot="1">
+      <c r="A56" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" s="98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" s="99"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1">
+      <c r="A59" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="100"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="129.6">
+      <c r="A64" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="43.2">
+      <c r="A68" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B68" s="74" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="43.2">
+      <c r="A69" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B69" s="74" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10732,13 +12660,13 @@
     </row>
     <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6">
@@ -10750,163 +12678,163 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4">
+      <c r="A8" s="97"/>
+      <c r="B8" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="86.4">
-      <c r="A8" s="95"/>
-      <c r="B8" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8">
       <c r="A21" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8">
       <c r="A22" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="57.6">
-      <c r="A27" s="94" t="s">
-        <v>287</v>
+      <c r="A27" s="96" t="s">
+        <v>286</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="57.6">
+      <c r="A28" s="97"/>
+      <c r="B28" s="15" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="57.6">
-      <c r="A28" s="95"/>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2">
       <c r="A33" s="25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -10919,7 +12847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -10969,7 +12897,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -10977,11 +12905,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -11008,7 +12936,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
@@ -11037,18 +12965,18 @@
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6">
       <c r="B12" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11056,21 +12984,21 @@
     </row>
     <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1">
       <c r="A16" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -11079,7 +13007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:B31"/>
   <sheetViews>
@@ -11099,12 +13027,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11231,18 +13159,18 @@
         <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="C7" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11257,41 +13185,41 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8">
       <c r="A21" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11299,94 +13227,94 @@
     </row>
     <row r="23" spans="1:4" ht="72">
       <c r="A23" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54.6">
       <c r="A26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57.6">
       <c r="A32" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>205</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8">
       <c r="A33" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="43.2">
       <c r="A37" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="187.2">
       <c r="A39" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -11400,10 +13328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11426,10 +13354,10 @@
     </row>
     <row r="3" spans="1:3" ht="230.4">
       <c r="A3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11438,10 +13366,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11450,15 +13378,10 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>552</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -11472,8 +13395,8 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11499,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1">
@@ -11515,63 +13438,66 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="115.2">
+    <row r="8" spans="1:3" ht="172.8" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1">
       <c r="A16" s="25"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="91" t="s">
+        <v>537</v>
+      </c>
+      <c r="C17" s="91" t="s">
         <v>538</v>
       </c>
-      <c r="C17" s="89" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
     </row>
     <row r="19" spans="2:3" ht="15" thickBot="1">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="81" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -11580,26 +13506,26 @@
     </row>
     <row r="22" spans="2:3" ht="45.6" thickBot="1">
       <c r="B22" s="80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.6" thickBot="1">
       <c r="B23" s="85" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>544</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15">
       <c r="B24" s="87" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -11608,25 +13534,25 @@
     </row>
     <row r="26" spans="2:3" ht="45.6" thickBot="1">
       <c r="B26" s="85" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="86" t="s">
         <v>547</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30.6" thickBot="1">
       <c r="B27" s="85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>549</v>
       </c>
-      <c r="C27" s="86" t="s">
+    </row>
+    <row r="28" spans="2:3" ht="30" customHeight="1" thickBot="1">
+      <c r="B28" s="94" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="92" t="s">
-        <v>551</v>
-      </c>
-      <c r="C28" s="93"/>
+      <c r="C28" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11641,11 +13567,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11670,23 +13596,23 @@
     </row>
     <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>510</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="95.4" customHeight="1">
@@ -11694,10 +13620,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>9</v>
@@ -11718,13 +13644,13 @@
     </row>
     <row r="12" spans="1:4" ht="129.6">
       <c r="A12" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>450</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58.5" customHeight="1">
@@ -11732,15 +13658,15 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8">
@@ -11751,21 +13677,21 @@
         <v>42</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>516</v>
-      </c>
       <c r="C18" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2">
@@ -11773,10 +13699,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6">
@@ -11784,10 +13710,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72">
@@ -11795,10 +13721,10 @@
         <v>79</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.6">
@@ -11806,10 +13732,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="107.4" customHeight="1">
@@ -11817,10 +13743,10 @@
         <v>80</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="130.5" customHeight="1">
@@ -11828,21 +13754,21 @@
         <v>83</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="130.5" customHeight="1">
       <c r="A25" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>532</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="115.2">
@@ -11858,10 +13784,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>508</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="72">
@@ -11869,7 +13795,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="42.75" customHeight="1">
@@ -11886,13 +13812,13 @@
     <row r="32" spans="1:4" ht="42.75" customHeight="1"/>
     <row r="33" spans="1:5" ht="86.4">
       <c r="A33" s="25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8">
@@ -11900,21 +13826,21 @@
         <v>75</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="86.4">
       <c r="A37" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="115.2">
@@ -11922,7 +13848,7 @@
         <v>104</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>106</v>
@@ -11939,7 +13865,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>130</v>
@@ -11947,13 +13873,13 @@
     </row>
     <row r="41" spans="1:5" ht="158.4">
       <c r="A41" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="129.6">
@@ -11974,21 +13900,21 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>561</v>
-      </c>
       <c r="C46" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.8">
       <c r="A47" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.2">
@@ -11996,15 +13922,15 @@
         <v>125</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="43.2">
       <c r="A49" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1">
@@ -12081,149 +14007,212 @@
     </row>
     <row r="60" spans="1:3" ht="28.8">
       <c r="A60" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C60" s="29"/>
     </row>
     <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="127.5" customHeight="1">
       <c r="A64" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="88.2" customHeight="1">
       <c r="A66" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="72">
       <c r="A68" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8">
       <c r="A70" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="57.6">
       <c r="A72" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="259.2">
       <c r="A74" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="86.4">
       <c r="A78" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8">
       <c r="A80" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="43.2">
+      <c r="A82" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" s="52" t="s">
         <v>555</v>
       </c>
-      <c r="B80" s="52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="43.2">
-      <c r="A82" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="43.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="43.2">
       <c r="A86" s="25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="43.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="43.2">
       <c r="A88" s="25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="57.6">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="57.6">
       <c r="A92" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>502</v>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.8">
+      <c r="B97" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -12269,59 +14258,59 @@
     </row>
     <row r="3" spans="1:3" ht="57.6">
       <c r="A3" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>394</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8">
       <c r="A5" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4">
       <c r="A7" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
       <c r="A9" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>402</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8">
       <c r="A11" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>404</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -12332,11 +14321,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12357,102 +14346,175 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="115.2">
+    <row r="3" spans="1:3" ht="100.8">
       <c r="A3" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2">
+      <c r="A5" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="115.2">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="8" spans="1:3" ht="57" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="129.6">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="144">
+      <c r="A9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="129.6">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="129.6">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B10" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="144">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="22.8">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2">
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6">
+      <c r="A18" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2">
+      <c r="A20" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="144">
+      <c r="B22" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2">
+      <c r="A26" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="144">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.8">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57.6">
-      <c r="A14" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2">
-      <c r="A16" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="144">
-      <c r="B18" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.2">
-      <c r="A22" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>537</v>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8">
+      <c r="B30" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8">
+      <c r="B31" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="72">
+      <c r="A33" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="115.2">
+      <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -12462,6 +14524,730 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17F0E62-B9F5-4418-8562-600BF9ECEF58}">
+  <dimension ref="A1:C119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="40.77734375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8">
+      <c r="A2" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>628</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="130.19999999999999" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="100.8">
+      <c r="A6" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.8">
+      <c r="A8" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="43.2">
+      <c r="A10" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="133.19999999999999" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="57.6">
+      <c r="A14" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="100.8">
+      <c r="A16" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="172.8">
+      <c r="A18" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>621</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="115.2">
+      <c r="A20" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="129.6">
+      <c r="A22" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>626</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="57.6">
+      <c r="A24" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>625</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" ht="86.4">
+      <c r="A26" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>654</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" ht="86.4">
+      <c r="A30" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="115.2">
+      <c r="A32" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="151.19999999999999" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" ht="103.8" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" ht="43.2">
+      <c r="A38" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="28.8">
+      <c r="A40" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="3"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="3"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{11373F40-4398-4DFC-9A9B-2EEC5FBCA613}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -12488,10 +15274,10 @@
     </row>
     <row r="2" spans="1:3" ht="187.2">
       <c r="A2" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="259.2">
@@ -12499,88 +15285,88 @@
         <v>7</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="216">
       <c r="A6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="216">
       <c r="A7" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="115.2">
       <c r="A8" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="94" t="s">
-        <v>304</v>
+      <c r="A10" s="96" t="s">
+        <v>303</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2">
+      <c r="A11" s="97"/>
+      <c r="B11" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.2">
-      <c r="A11" s="95"/>
-      <c r="B11" s="15" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="100.8">
-      <c r="A13" s="94" t="s">
-        <v>207</v>
+      <c r="A13" s="96" t="s">
+        <v>206</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="129.6">
+      <c r="A14" s="97"/>
+      <c r="B14" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="129.6">
-      <c r="A14" s="95"/>
-      <c r="B14" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8">
       <c r="A16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12588,98 +15374,98 @@
     </row>
     <row r="19" spans="1:4" ht="43.2">
       <c r="A19" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="187.2">
       <c r="A21" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144">
       <c r="A23" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="144">
       <c r="A25" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>417</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="144">
       <c r="A27" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2">
       <c r="A29" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>427</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="201.6">
       <c r="A31" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="D31" s="67" t="s">
         <v>424</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="115.2">
       <c r="A32" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="201.6">
       <c r="A33" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>387</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12687,190 +15473,190 @@
     </row>
     <row r="36" spans="1:3" ht="129.6">
       <c r="A36" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="72">
       <c r="A38" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
       <c r="A40" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="158.4">
       <c r="A42" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.2">
       <c r="A44" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.2">
       <c r="A46" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="43.2">
       <c r="A50" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>360</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>362</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>364</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="86.4">
       <c r="A55" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="129.6">
       <c r="A57" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="189" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="100.8">
       <c r="A61" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8">
       <c r="A65" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="129.6">
       <c r="A67" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="409.6">
       <c r="A69" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>439</v>
-      </c>
       <c r="D69" s="68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -12884,528 +15670,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:B71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="45" style="25" customWidth="1"/>
-    <col min="2" max="2" width="78" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-    </row>
-    <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="105"/>
-      <c r="B12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="105"/>
-      <c r="B13" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="105"/>
-      <c r="B14" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="95"/>
-      <c r="B15" s="44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="86.4">
-      <c r="A22" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="100.8">
-      <c r="A28" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="86.4">
-      <c r="A29" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="100"/>
-      <c r="B33" s="48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="100"/>
-      <c r="B34" s="48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="100"/>
-      <c r="B35" s="48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="101"/>
-      <c r="B36" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="101"/>
-      <c r="B38" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="100"/>
-      <c r="B40" s="48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="101"/>
-      <c r="B41" s="49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="101"/>
-      <c r="B44" s="49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="101"/>
-      <c r="B46" s="49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="99" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="102"/>
-      <c r="B49" s="49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1">
-      <c r="A54" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="22.8">
-      <c r="A55" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="23.4" thickBot="1">
-      <c r="A56" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B57" s="96" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B58" s="97"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1">
-      <c r="A59" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="B59" s="98"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1">
-      <c r="A60" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="129.6">
-      <c r="A64" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="43.2">
-      <c r="A68" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B68" s="74" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="43.2">
-      <c r="A69" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B69" s="74" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
 </file>
--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC249BEA-C725-4037-90DF-196917EDD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754E819E-97FE-4FDE-BC45-B633CB048960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="679">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -10424,6 +10424,135 @@
                      class = c == NULL? "No Class" : c.Name
                     };</t>
     </r>
+  </si>
+  <si>
+    <t>Httppost is not idempotent</t>
+  </si>
+  <si>
+    <t>HttpGet</t>
+  </si>
+  <si>
+    <t>HttpPut</t>
+  </si>
+  <si>
+    <t>HttpDelete</t>
+  </si>
+  <si>
+    <t>HttpPost</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rhTkRK53XdQ</t>
+  </si>
+  <si>
+    <t>It is Idempotent method because the duplicate request cannot affect the server data.
+It is used to update data of the server.
+If the requiest repeated/duplicate the same by mistake multiple times it update the data.
+So if we make duplicate calls by mistake then there is no sideeffect on the server.</t>
+  </si>
+  <si>
+    <t>It is Idempotent method because the duplicate request cannot affect the server data.
+It is used to delete data of the server.
+If the requiest repeated/duplicate the same quest multiple times the at first it deletes the data then after 2nd time it's not going the change any thing into the server.
+So if we make duplicate calls by mistake then there is no sideeffect on the server.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-Idempotent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method because the duplicate request affect the server data.
+If request is duplicate by mistakes then duplicate data will get inserted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Idempotent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method because the duplicate request cannot affect the server data.
+It is readonly method is used only to read data from the server.
+It is not changing anything into the server.
+It is can accept repeatable duplicate request.
+Caching is only work on Get request.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is Closer in JavaScript?</t>
+  </si>
+  <si>
+    <t>What is Inheritance in JavaScript?</t>
+  </si>
+  <si>
+    <t>What are the building blocks of Angular?</t>
+  </si>
+  <si>
+    <t>On high level tell me how JavaScript executes the function?</t>
+  </si>
+  <si>
+    <t>I have 10 JavaScript and 10 CSS file, and I would like it to merge it, how can I merge it?</t>
+  </si>
+  <si>
+    <t>Is JavaScript complied of interpreted? Why</t>
+  </si>
+  <si>
+    <t>Is JavaScript multithreaded or single threaded? Why is it multi treaded</t>
+  </si>
+  <si>
+    <t>How list is implemented within framework at very high level?</t>
+  </si>
+  <si>
+    <t>Suppose I have a huge of list, I am going to remove the element in middle of list? At high level can you tell me what is happening behind the scenes? 
+   What happens to the empty space in the list?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can I apply LINQ on a list of integers? Can I apply it on dictionary?</t>
+  </si>
+  <si>
+    <t>Do you know LINQ Expressions? Suppose Array of integers 1 to 10 and want to get numbers greater than 4, in array, how do I get it? 
+  Now Suppose, I wanted to write my custom LINQ method, when I call this method greater than 4, when I call this method array it should give me number greater than 4?</t>
+  </si>
+  <si>
+    <t>I have visual studio open and I have simple console app which just read out Hello word, now I am compiling it to exe 
+ and then I take the exe and ran it, So at very high level can you tell me what is happen behind the scenes when I compile it and run it?</t>
+  </si>
+  <si>
+    <t>What are the default methods, with reference to interface particularly?</t>
   </si>
 </sst>
 </file>
@@ -11325,7 +11454,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11606,27 +11735,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11643,6 +11751,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12149,7 +12281,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="101" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -12163,18 +12295,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="109"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="109"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
@@ -12189,7 +12321,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="109"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="39" t="s">
         <v>32</v>
       </c>
@@ -12204,7 +12336,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="109"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
@@ -12219,7 +12351,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="110"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="40" t="s">
         <v>29</v>
       </c>
@@ -12245,17 +12377,17 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="107"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="107"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="107"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
@@ -12375,7 +12507,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="104" t="s">
         <v>170</v>
       </c>
       <c r="B32" s="47" t="s">
@@ -12383,31 +12515,31 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="102"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="48" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="102"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="48" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="102"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="48" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="103"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="49" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="104" t="s">
         <v>176</v>
       </c>
       <c r="B37" s="47" t="s">
@@ -12415,13 +12547,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="103"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="49" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="104" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -12429,13 +12561,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="102"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="48" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="103"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="49" t="s">
         <v>182</v>
       </c>
@@ -12449,7 +12581,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="104" t="s">
         <v>185</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -12457,13 +12589,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="103"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="49" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="104" t="s">
         <v>188</v>
       </c>
       <c r="B45" s="47" t="s">
@@ -12471,7 +12603,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="103"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="49" t="s">
         <v>190</v>
       </c>
@@ -12485,7 +12617,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="104" t="s">
         <v>193</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -12493,7 +12625,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="104"/>
+      <c r="A49" s="110"/>
       <c r="B49" s="49" t="s">
         <v>195</v>
       </c>
@@ -12531,7 +12663,7 @@
       <c r="A57" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="107" t="s">
         <v>297</v>
       </c>
     </row>
@@ -12539,13 +12671,13 @@
       <c r="A58" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="99"/>
+      <c r="B58" s="108"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="B59" s="100"/>
+      <c r="B59" s="109"/>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="59" t="s">
@@ -12612,16 +12744,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -13567,11 +13699,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14213,6 +14345,36 @@
       </c>
       <c r="C101" s="15" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.8">
+      <c r="A104" s="25" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="57.6">
+      <c r="A106" s="25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="28.8">
+      <c r="A108" s="25" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="100.8">
+      <c r="A110" s="25" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="86.4">
+      <c r="A112" s="111" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="28.8">
+      <c r="A114" s="25" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -14232,10 +14394,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14311,6 +14473,36 @@
     <row r="13" spans="1:3">
       <c r="A13" s="28" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="28" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="28" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="28.8">
+      <c r="A19" s="28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8">
+      <c r="A21" s="28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.8">
+      <c r="A25" s="28" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -14525,10 +14717,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17F0E62-B9F5-4418-8562-600BF9ECEF58}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14850,8 +15042,12 @@
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>661</v>
+      </c>
       <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3">
@@ -14859,28 +15055,40 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:3" ht="86.4">
+      <c r="A45" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>665</v>
+      </c>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:3" ht="100.8">
+      <c r="A46" s="3" t="s">
+        <v>658</v>
+      </c>
       <c r="B46" s="9" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:3" ht="115.2">
+      <c r="A47" s="3" t="s">
+        <v>659</v>
+      </c>
       <c r="B47" s="9" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
+    <row r="48" spans="1:3" ht="57.6">
+      <c r="A48" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>664</v>
+      </c>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3">
@@ -14900,12 +15108,16 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>634</v>
+      </c>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>635</v>
+      </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3">
@@ -15232,11 +15444,6 @@
       <c r="A118" s="3"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="3"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15249,9 +15456,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -15272,400 +15481,405 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="187.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="53" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="187.2">
+      <c r="A4" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="259.2">
-      <c r="A4" s="25" t="s">
+    <row r="6" spans="1:3" ht="259.2">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="216">
-      <c r="A6" s="25" t="s">
+    <row r="8" spans="1:3" ht="216">
+      <c r="A8" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="216">
-      <c r="A7" s="25" t="s">
+    <row r="9" spans="1:3" ht="216">
+      <c r="A9" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="115.2">
-      <c r="A8" s="25" t="s">
+    <row r="10" spans="1:3" ht="115.2">
+      <c r="A10" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="96" t="s">
+    <row r="12" spans="1:3" ht="43.2">
+      <c r="A12" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2">
-      <c r="A11" s="97"/>
-      <c r="B11" s="15" t="s">
+    <row r="13" spans="1:3" ht="43.2">
+      <c r="A13" s="97"/>
+      <c r="B13" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="100.8">
-      <c r="A13" s="96" t="s">
+    <row r="15" spans="1:3" ht="100.8">
+      <c r="A15" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="129.6">
-      <c r="A14" s="97"/>
-      <c r="B14" s="15" t="s">
+    <row r="16" spans="1:3" ht="129.6">
+      <c r="A16" s="97"/>
+      <c r="B16" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="100.8">
-      <c r="A16" s="25" t="s">
+    <row r="18" spans="1:3" ht="100.8">
+      <c r="A18" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="53"/>
-    </row>
-    <row r="19" spans="1:4" ht="43.2">
-      <c r="A19" s="53" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="53"/>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B21" s="28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="187.2">
-      <c r="A21" s="25" t="s">
+    <row r="23" spans="1:3" ht="187.2">
+      <c r="A23" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="144">
-      <c r="A23" s="25" t="s">
+    <row r="25" spans="1:3" ht="144">
+      <c r="A25" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="144">
-      <c r="A25" s="25" t="s">
+    <row r="27" spans="1:3" ht="144">
+      <c r="A27" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="144">
-      <c r="A27" s="25" t="s">
+    <row r="29" spans="1:3" ht="144">
+      <c r="A29" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="187.2">
-      <c r="A29" s="25" t="s">
+    <row r="31" spans="1:3" ht="187.2">
+      <c r="A31" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="201.6">
-      <c r="A31" s="53" t="s">
+    <row r="33" spans="1:4" ht="201.6">
+      <c r="A33" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D33" s="67" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="115.2">
-      <c r="A32" s="53" t="s">
+    <row r="34" spans="1:4" ht="115.2">
+      <c r="A34" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B34" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="201.6">
-      <c r="A33" s="53" t="s">
+    <row r="35" spans="1:4" ht="201.6">
+      <c r="A35" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="53"/>
-    </row>
-    <row r="36" spans="1:3" ht="129.6">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="53"/>
+    </row>
+    <row r="38" spans="1:4" ht="129.6">
+      <c r="A38" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="72">
-      <c r="A38" s="28" t="s">
+    <row r="40" spans="1:4" ht="72">
+      <c r="A40" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="144">
-      <c r="A40" s="25" t="s">
+    <row r="42" spans="1:4" ht="144">
+      <c r="A42" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="158.4">
-      <c r="A42" s="25" t="s">
+    <row r="44" spans="1:4" ht="158.4">
+      <c r="A44" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="43.2">
-      <c r="A44" s="25" t="s">
+    <row r="46" spans="1:4" ht="43.2">
+      <c r="A46" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="43.2">
-      <c r="A46" s="25" t="s">
+    <row r="48" spans="1:4" ht="43.2">
+      <c r="A48" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8">
-      <c r="A48" s="25" t="s">
+    <row r="50" spans="1:3" ht="28.8">
+      <c r="A50" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.2">
-      <c r="A50" s="25" t="s">
+    <row r="52" spans="1:3" ht="43.2">
+      <c r="A52" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8">
-      <c r="A51" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8">
-      <c r="A52" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8">
+      <c r="A54" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8">
+      <c r="A55" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="86.4">
-      <c r="A55" s="25" t="s">
+    <row r="57" spans="1:3" ht="86.4">
+      <c r="A57" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="129.6">
-      <c r="A57" s="25" t="s">
+    <row r="59" spans="1:3" ht="129.6">
+      <c r="A59" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="189" customHeight="1">
-      <c r="A59" s="25" t="s">
+    <row r="61" spans="1:3" ht="189" customHeight="1">
+      <c r="A61" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="100.8">
-      <c r="A61" s="25" t="s">
+    <row r="63" spans="1:3" ht="100.8">
+      <c r="A63" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B63" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="25" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8">
-      <c r="A65" s="25" t="s">
+    <row r="67" spans="1:4" ht="28.8">
+      <c r="A67" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="129.6">
-      <c r="A67" s="25" t="s">
+    <row r="69" spans="1:4" ht="129.6">
+      <c r="A69" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B69" s="15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="409.6">
-      <c r="A69" s="25" t="s">
+    <row r="71" spans="1:4" ht="409.6">
+      <c r="A71" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D71" s="68" t="s">
         <v>458</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Quick Notes.xlsx
+++ b/Quick Notes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754E819E-97FE-4FDE-BC45-B633CB048960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F2CAE1-E379-4FD4-89F2-4CE0F9F28A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,13 @@
     <sheet name="Javascrpit" sheetId="13" r:id="rId6"/>
     <sheet name="SQL" sheetId="4" r:id="rId7"/>
     <sheet name=".net Core" sheetId="14" r:id="rId8"/>
-    <sheet name="Angular" sheetId="5" r:id="rId9"/>
-    <sheet name="WCF" sheetId="6" r:id="rId10"/>
-    <sheet name="Jquery" sheetId="8" r:id="rId11"/>
-    <sheet name="Other topics" sheetId="9" r:id="rId12"/>
-    <sheet name="Entity framework" sheetId="10" r:id="rId13"/>
-    <sheet name="Links to study" sheetId="7" r:id="rId14"/>
+    <sheet name="Angular 10" sheetId="15" r:id="rId9"/>
+    <sheet name="AngularJS" sheetId="5" r:id="rId10"/>
+    <sheet name="WCF" sheetId="6" r:id="rId11"/>
+    <sheet name="Jquery" sheetId="8" r:id="rId12"/>
+    <sheet name="Other topics" sheetId="9" r:id="rId13"/>
+    <sheet name="Entity framework" sheetId="10" r:id="rId14"/>
+    <sheet name="Links to study" sheetId="7" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="771">
   <si>
     <t>concurrency in entity framework</t>
   </si>
@@ -914,15 +915,6 @@
     <t>VAR</t>
   </si>
   <si>
-    <t>Points to Remember :
-var can only be declared and initialized in a single statement. Following is not valid: 
-var i; 
-i = 10;
-var cannot be used as a field type at the class level.
-var cannot be used in an expression like var i += 10;
-Multiple vars cannot be declared and initialized in a single statement. For example, var i=10, j=20; is invalid.</t>
-  </si>
-  <si>
     <t>http://www.tutorialsteacher.com/csharp/csharp-covariance-and-contravariance</t>
   </si>
   <si>
@@ -3142,398 +3134,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>digest loop is responsible to update DOM elements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with the changes made to the model as well as executing any registered watcher functions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">$digest loop is fired when the browser receives an event.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This loop is</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>made up of two smaller loops</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. One processes the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$evalAsync queue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the other one processes the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$watch list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-$digest loop keeps iterating until the $evalAsync queue is empty and the $watch list does not detect any changes in the model.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$evalAsync queue contains</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> those </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tasks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">which are scheduled by $evalAsync() function </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>from a directive or controller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$watch list contains watches</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> correspondence to each DOM element which is bound to the $scope object.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>watches are resolved</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the $digest loop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>through</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a process called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dirty checking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dirty checking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a process which </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>checks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>whether a value has changed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, if the value has changed, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>it set the $scope as dirty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If the $scope is dirty, another $digest loop is triggered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Method Chaining</t>
   </si>
   <si>
@@ -3812,130 +3412,6 @@
   </si>
   <si>
     <t>Promises in AngularJS is provided by $q service.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compiler is an angular service which traverses the DOM looking for attributes. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The compilation process happens into two phases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compile:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>traverse the DOM and collect all of the directives. The result is a linking function.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Link:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>combine the directives with a scope and produce a live</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> view. Any changes in the scope model are reflected in the view, and any user interactions with the view are reflected in the scope model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Making the scope model a single source of truth.
-Some directives such ng-repeat clone DOM elements once for each item in collection. Having a compile and link phase improves performance since the cloned template only needs to be compiled once, and then linked once for each clone instance.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -7215,9 +6691,6 @@
     <t>suppose we have 1lakh cars and want to search by registration, how it will search intrnally, what is the probility for that</t>
   </si>
   <si>
-    <t>Role of dispose method in garbage collection</t>
-  </si>
-  <si>
     <t>which collection is fast in search operation</t>
   </si>
   <si>
@@ -8020,10 +7493,6 @@
     <t>https://www.youtube.com/watch?v=spjpukTIL4o</t>
   </si>
   <si>
-    <t>both are depend on each other, if project goes off then manager is in problem and 
-manager goes of then project is also in problem.</t>
-  </si>
-  <si>
     <r>
       <t>IEnumerator contains</t>
     </r>
@@ -8099,7 +7568,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">IEnumerable is used when we want to iterate among our classes using a </t>
+      <t xml:space="preserve">The ICollection interface contains the following properties:
+It </t>
     </r>
     <r>
       <rPr>
@@ -8109,7 +7579,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>foreach loop</t>
+      <t>implements IEnumerable</t>
     </r>
     <r>
       <rPr>
@@ -8118,8 +7588,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">.
-The main difference between IEnumerable and IEnumerator is an </t>
+      <t xml:space="preserve"> interface.
+The </t>
     </r>
     <r>
       <rPr>
@@ -8129,7 +7599,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>IEnumerator</t>
+      <t>Count</t>
     </r>
     <r>
       <rPr>
@@ -8138,7 +7608,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> property is used for maintaining the count of elements in the list
+The </t>
     </r>
     <r>
       <rPr>
@@ -8148,7 +7619,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>retains its cursor's current state</t>
+      <t>IsSysnchronized</t>
     </r>
     <r>
       <rPr>
@@ -8157,16 +7628,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.
-IEnumerable internally uses IEnumerator.
-IEnumerable is used for LINQ to Object and LINQ to XML queries.
-So, if you want to loop sequentially through the collection, use an IEnumerable interface else if you want to retain the cursor position and want to pass it from one function to another function then use an IEnumerator interface.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The ICollection interface contains the following properties:
-It </t>
+      <t xml:space="preserve"> and SyncRoot properties help to make the collection thread-safe.
+The </t>
     </r>
     <r>
       <rPr>
@@ -8176,7 +7639,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>implements IEnumerable</t>
+      <t>CopyTo</t>
     </r>
     <r>
       <rPr>
@@ -8185,8 +7648,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> interface.
-The </t>
+      <t xml:space="preserve"> method copies the entire collection into an array.
+It provides </t>
     </r>
     <r>
       <rPr>
@@ -8196,7 +7659,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Count</t>
+      <t>Add and Remove</t>
     </r>
     <r>
       <rPr>
@@ -8205,174 +7668,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> property is used for maintaining the count of elements in the list
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IsSysnchronized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and SyncRoot properties help to make the collection thread-safe.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CopyTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> method copies the entire collection into an array.
-It provides </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add and Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> methods also.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IList exists in System.Collections Namespace.
-IList Interface </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>implements both IEnumerable and ICollection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Interface.
-IList is used to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>access an element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in a specific position/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>index in a list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-Like IEnumerable, IList is also best to query data from in-memory collections like List, Array etc.
-IList is useful when you want to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add or remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> item </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in the between of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the list by index.
-IList can find out the no of elements in the collection without iterating the collection.
-IList supports deferred execution.
-IList doesn’t support further filtering.</t>
     </r>
   </si>
   <si>
@@ -9308,11 +8604,6 @@
     <t>Model binder</t>
   </si>
   <si>
-    <t xml:space="preserve">  IModelBinder interface is used to inherit to create Custom Model binder.
-  ModelBinder is to read data from the request. It also used to read the from the headers of request.
-  CustomModel Binder can be used in Acton Paramtere as well as Attribute of the Model.</t>
-  </si>
-  <si>
     <r>
       <t>public class MyCustomModelBinder : IModelBinder
     {
@@ -9729,162 +9020,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">We can use any name instead of startup class. For this just specify the class name into the Program.cs class.
-There is one </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Constructore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> which is having </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Iconfigurations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> parameter.
-2 Methods 
-1.  public void </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ConfigureServices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IServiceCollection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> services) 
-2.public void </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Configure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IApplicationBuilder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> app, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IWebHostEnvironment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> env)</t>
-    </r>
-  </si>
-  <si>
     <t>Routing</t>
   </si>
   <si>
@@ -10122,9 +9257,6 @@
     </r>
   </si>
   <si>
-    <t>Route Contraint</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NNYf4gPQcqw&amp;list=PLaFzfwmPR7_IPzBR4AI0eoojmIdTFJmHs&amp;index=54</t>
   </si>
   <si>
@@ -10424,9 +9556,6 @@
                      class = c == NULL? "No Class" : c.Name
                     };</t>
     </r>
-  </si>
-  <si>
-    <t>Httppost is not idempotent</t>
   </si>
   <si>
     <t>HttpGet</t>
@@ -10554,12 +9683,1716 @@
   <si>
     <t>What are the default methods, with reference to interface particularly?</t>
   </si>
+  <si>
+    <t>Tuple</t>
+  </si>
+  <si>
+    <t>public (int, int) Mathoperations(int a, int b)
+// Or public Tuple&lt;int, int&gt; Mathoperations(int a, int b)
+// Or public (int Sum, int Product) Mathoperations(int a, int b)
+        {
+            int sum = a + b;
+            int multiply = a * b;
+            return (sum, multiply);
+        }
+Public static void Main() {
+            var (summation, Product) = objB.Mathoperations(10, 10);
+            Console.WriteLine($"Sum = {summation}");
+            Console.WriteLine($"Product = {Product}");
+}</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LlxgobNCLNo
+By using this Tuple we can return multiple value in return type.
+It accept 7 Parameter and the last 8th parameter we can use nested Tuple object;</t>
+  </si>
+  <si>
+    <t>Why and when should we use an abstract class</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yyU3bXyc_oU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o_cnd5gsXVo&amp;list=PL6n9fhu94yhWlAv3hnHzOaMSeggILsZFs&amp;index=13</t>
+  </si>
+  <si>
+    <t>other Interview questions</t>
+  </si>
+  <si>
+    <t>https://www.c-sharpcorner.com/article/oops-interview-questions-c-sharp/</t>
+  </si>
+  <si>
+    <t>ActionFilter</t>
+  </si>
+  <si>
+    <t>BindProperty</t>
+  </si>
+  <si>
+    <t>Constraints in Generic</t>
+  </si>
+  <si>
+    <t>GenericTypeName&lt;T&gt; where T  : contraint1, constraint2
+You can specify one or more constraints on the generic type using the where clause after the generic type name.</t>
+  </si>
+  <si>
+    <t>class DataStore&lt;T&gt; where T : class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compiler is a service of angular, which traverses the DOM looking for attributes. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The compilation process happens into two phases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compile:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traverse the DOM and collect all of the directives. The result is a linking function.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>combine the directives with a scope and produce a live</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> view. Any changes in the scope model are reflected in the view, and any user interactions with the view are reflected in the scope model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Making the scope model a single source of truth.
+Some directives such ng-repeat clone DOM elements once for each item in collection. Having a compile and link phase improves performance since the cloned template only needs to be compiled once and then linked once for each clone instance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>digest loop is responsible to update DOM elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the changes made to the model as well as executing any registered watcher functions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">$digest loop is fired when the browser receives an event.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This loop is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>made up of two smaller loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. One processes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$evalAsync queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the another one processes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$watch list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+$digest loop keeps iterating until the $evalAsync queue is empty and the $watch list does not detect any changes in the model.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$evalAsync queue contains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> those </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">which are scheduled by $evalAsync() function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from a directive or controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$watch list contains watches</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> correspondence to each DOM element which is bound to the $scope object.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>watches are resolved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the $digest loop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>through</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a process called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dirty checking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dirty checking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a process which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whether a value has changed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, if the value has changed, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it set the $scope as dirty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If the $scope is dirty, another $digest loop is triggered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Domain Driven design principle</t>
+  </si>
+  <si>
+    <t>CQRS design pattern</t>
+  </si>
+  <si>
+    <t>Onion Architecture</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4EO3D6J2Xmg</t>
+  </si>
+  <si>
+    <t>Clean, Hexagonal architure</t>
+  </si>
+  <si>
+    <t>POCO class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependency Injection (DI) and Inversion of control (IOC) both are same.
+DI is a framework to create depencied and inject them automatically when required.
+We can inject the type by contorller, property or method.
+Unity Container </t>
+  </si>
+  <si>
+    <t>Below are the selectors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Httppost is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> idempotent</t>
+    </r>
+  </si>
+  <si>
+    <t>Purging in sql server</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IEnumerable is used when we want to iterate among our classes using a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>foreach loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+The main difference between IEnumerable and IEnumerator is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEnumerator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>retains its cursor's current state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+IEnumerable is used for LINQ to Object and LINQ to XML queries.
+So, if you want to loop sequentially through the collection, use an IEnumerable interface else if you want to retain the cursor position and want to pass it from one function to another function then use an IEnumerator interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IList exists in System.Collections Namespace.
+IList Interface </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>implements both IEnumerable and ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Interface.
+IList is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>access an element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in a specific position/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index in a list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+Like IEnumerable, IList is also best to query data from in-memory collections like List, Array etc.
+IList provides a method to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add or remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+IList can find out the no of elements in the collection without iterating the collection.
+IList supports deferred execution.
+IList doesn’t support further filtering.</t>
+    </r>
+  </si>
+  <si>
+    <t>WEB Garden</t>
+  </si>
+  <si>
+    <t>By default, each application pool runs with a single worker process (W3Wp.exe). When an application pool runs with multiple worker process, it is called web garden.</t>
+  </si>
+  <si>
+    <t>Tool used for Monitering performance</t>
+  </si>
+  <si>
+    <t>SCOM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encrypt and decrypt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Route value/ Query string/ database connection string and other application data</t>
+    </r>
+  </si>
+  <si>
+    <t>IDataProtector interface is used to encrypt and decrypt any data with the help of IDataProtectionProvide instance. We need to pass the string which acts as a encryption key. This encryption key will combine with master/ root key. With the help of these two key data is encrypt and decrypt.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class CustomIDataProtection {  
+        private readonly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDataProtector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> protector;  
+        public CustomIDataProtection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDataProtectionProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dataProtectionProvider, UniqueCode uniqueCode) {  
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = dataProtectionProvider.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateProtector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">( uniqueCode.BankIdRouteValue );  
+        }  
+/// this Protect method is used to encrypt the data
+        public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(string data) {  
+            return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(data);  
+        }  
+/// this Protect method is used to decrypt the data
+        public string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(string data) {  
+            return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unprotect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(data);  
+        }  
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>both are depend on each other, if project goes off then manager is in problem and 
+manager is not capable to handel the project then project is in problem.</t>
+  </si>
+  <si>
+    <t>Points to Remember :
+var can only be declared and initialized in a single statement. Following is not valid: 
+var i; 
+i = 10;
+var cannot be used at the class level.
+var cannot be used in an expression like var i += 10;
+Multiple vars cannot be declared and initialized in a single statement. For example, var i=10, j=20; is invalid.</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IModelBinder interface is used to inherit to create Custom Model binder.
+  ModelBinder is to read data from the request. It also used to read from the headers of request.
+  CustomModel Binder can be used in Acton Paramtere as well as Attribute of the Model.</t>
+  </si>
+  <si>
+    <t>Install Angular CLI</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli</t>
+  </si>
+  <si>
+    <t>to check ng version</t>
+  </si>
+  <si>
+    <t>ng version</t>
+  </si>
+  <si>
+    <t>Create project</t>
+  </si>
+  <si>
+    <t>ng new MyProject</t>
+  </si>
+  <si>
+    <t>To Run application</t>
+  </si>
+  <si>
+    <t>ng serve</t>
+  </si>
+  <si>
+    <t>Package.json</t>
+  </si>
+  <si>
+    <t>To build</t>
+  </si>
+  <si>
+    <t>ng build</t>
+  </si>
+  <si>
+    <t>It stores the project name, dev dependencies.
+It also contains the script which are required in application like ng serve, ng build and so on.</t>
+  </si>
+  <si>
+    <t>Nodue module</t>
+  </si>
+  <si>
+    <t>It contains the all installed packages, like all the dev dependincies pakages and angule packages</t>
+  </si>
+  <si>
+    <t>Src folder</t>
+  </si>
+  <si>
+    <t>assets folder</t>
+  </si>
+  <si>
+    <t>it is used to place the images, and other static files.</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>main.js</t>
+  </si>
+  <si>
+    <t>package.lock.json</t>
+  </si>
+  <si>
+    <t>it contains the entry of dependices of dev dependices</t>
+  </si>
+  <si>
+    <t>tslint.json</t>
+  </si>
+  <si>
+    <t>it contains the description of type script related coding standerd.</t>
+  </si>
+  <si>
+    <t>Interpolations</t>
+  </si>
+  <si>
+    <t>Properties written inside into the component.ts file can directly access into the html page by {{ }}</t>
+  </si>
+  <si>
+    <t>app component</t>
+  </si>
+  <si>
+    <t>it is our root component which is provided by angular. 
+Main.js call this component to load the index.html page
+It contais 4 files.
+1. app-module.ts
+2. app-component.ts
+3. app-component.html
+4. app-component.css
+It also contains app-routing.module.ts which is used to create the routing</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Create Component</t>
+  </si>
+  <si>
+    <t>ng g c MyComponent</t>
+  </si>
+  <si>
+    <t>ng generate component MyComponent</t>
+  </si>
+  <si>
+    <t>Every page in the angular is writter in component.
+It contains 4 types of file. .css, .ts , .html and .spec.ts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import { Component, OnInit } from '@angular/core';
+@Component({
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 'app-greet',
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>templateUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: './greet.component.html',
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>styleUrls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ['./greet.component.css']
+})
+export class GreetComponent implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnInit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+  constructor() { }
+  ngOnInit(): void {
+  }    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>create Module</t>
+  </si>
+  <si>
+    <t>ng g m MyModule</t>
+  </si>
+  <si>
+    <t>ng generate module MyModule</t>
+  </si>
+  <si>
+    <t>import { BrowserModule } from '@angular/platform-browser';
+import { NgModule } from '@angular/core';
+import { AppComponent } from './app.component';
+@NgModule({
+   declarations: [
+      AppComponent
+   ],
+   imports: [
+      BrowserModule
+   ],
+   providers: [],
+   bootstrap: [AppComponent]
+})
+export class AppModule { }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modules is a collection of component, services, pipes and directives.
+All the component which are created must be declare in declarations section.
+If we want to import anyother module then we need to specify into the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+We need to specify that which component will display or run first into the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootstrap section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+If we want to export any component into another module then we have to specify the component into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>create function</t>
+  </si>
+  <si>
+    <r>
+      <t>to create function
+getName(name)
+{
+   alert(name);
+  return name;
+}
+To call this function on click event of button
+&lt;button (click)=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('sameer Bowade')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; click event &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>get the value of textbox with the id
+&lt;input type="text" #box (keyup)="getName(box.value)" /&gt;
+in this case #box is the id for this input tag</t>
+  </si>
+  <si>
+    <t>Property Binding</t>
+  </si>
+  <si>
+    <t>Route Constraint</t>
+  </si>
+  <si>
+    <t>Module, Controller, Directive, Data Binding</t>
+  </si>
+  <si>
+    <t>What do you understand by state and behavior</t>
+  </si>
+  <si>
+    <t>Classes are the user defined data types that represent the state and behavior of an object. State represents the properties and behavior is the action that objects can perform.</t>
+  </si>
+  <si>
+    <t>How to secure API</t>
+  </si>
+  <si>
+    <t>Different types of authenticaion in API</t>
+  </si>
+  <si>
+    <t>What is bearrer in token</t>
+  </si>
+  <si>
+    <t>basic Auth, Toekn, Oauth 1.0, OAuth 2.0, AWS, API key,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can use any name instead of startup class. For this just specify the class name into the Program.cs class.
+There is one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constructore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which is having </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iconfigurations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter.
+It also contains 2 Methods 
+1.  public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConfigureServices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IServiceCollection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> services) 
+2.public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IApplicationBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> app, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IWebHostEnvironment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> env)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://medium.com/@saurav200892/how-to-achieve-idempotency-in-post-method-d88d7b08fcdd</t>
+  </si>
+  <si>
+    <t>How to achieve idempotency in POST method?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it’s clear that idempotent technique is important to build a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fault-tolerant API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; especially when you are dealing with payment-related stuff.</t>
+    </r>
+  </si>
+  <si>
+    <t>To upgrade anular into new version</t>
+  </si>
+  <si>
+    <t>npx @angular/cli@12 update @angular/core@12 @angular/cli@12</t>
+  </si>
+  <si>
+    <t>It contains the angule code which we need to write</t>
+  </si>
+  <si>
+    <t>it is the entry point of our HTML page</t>
+  </si>
+  <si>
+    <t>it is the entry point of our angular project</t>
+  </si>
+  <si>
+    <t>ASP.NET core application works with full .NET framework via the .NET standard library.</t>
+  </si>
+  <si>
+    <t>What is the used of .Net Standard library</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (env.IsDevelopment())
+            {
+                app.UseDeveloperExceptionPage();
+            }
+            else
+            {
+                app.UseExceptionHandler("/Home/Error");
+            }</t>
+  </si>
+  <si>
+    <t>Handle Exception in .net Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This attribute declares above the property which we are going to use while doing the requiest.
+Bind property is by default use for Post requiest. If we want to use for get request then we have to set the
+[BindProperty(SupportGets = true)]
+Name </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10613,12 +11446,6 @@
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -10823,8 +11650,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10834,12 +11676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11449,7 +12285,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -11481,9 +12317,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -11508,14 +12341,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -11525,8 +12358,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11542,10 +12375,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11578,155 +12411,161 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11753,29 +12592,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12100,138 +12936,138 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144">
-      <c r="A3" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>431</v>
+      <c r="A3" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8">
+      <c r="A7" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="15" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="115.2">
+      <c r="A9" s="24" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="25" t="s">
+      <c r="B9" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="86.4">
+      <c r="A11" s="24" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="115.2">
-      <c r="A9" s="25" t="s">
+      <c r="B11" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2">
+      <c r="A13" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="86.4">
-      <c r="A11" s="25" t="s">
+      <c r="B13" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="15" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="28.8">
+      <c r="A15" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2">
-      <c r="A13" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8">
-      <c r="A15" s="25" t="s">
+    <row r="17" spans="1:3" ht="100.8">
+      <c r="A17" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="15" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="43.2">
+      <c r="A19" s="24" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="100.8">
-      <c r="A17" s="25" t="s">
+      <c r="B19" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2">
-      <c r="A19" s="25" t="s">
+    <row r="21" spans="1:3" ht="72">
+      <c r="A21" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="72">
-      <c r="A21" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2">
+      <c r="A25" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8">
+      <c r="A27" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8">
+      <c r="A29" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>453</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.2">
-      <c r="A25" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8">
-      <c r="A27" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8">
-      <c r="A29" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -12241,6 +13077,442 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" style="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="52" t="s">
+        <v>657</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="187.2">
+      <c r="A4" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.8" customHeight="1"/>
+    <row r="6" spans="1:3" ht="259.2">
+      <c r="A6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="216">
+      <c r="A8" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="216">
+      <c r="A9" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="115.2">
+      <c r="A10" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2">
+      <c r="A12" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2">
+      <c r="A13" s="98"/>
+      <c r="B13" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="100.8">
+      <c r="A15" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="129.6">
+      <c r="A16" s="98"/>
+      <c r="B16" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="100.8">
+      <c r="A18" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="52"/>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="187.2">
+      <c r="A23" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="144">
+      <c r="A25" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="144">
+      <c r="A27" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="144">
+      <c r="A29" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="187.2">
+      <c r="A31" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="201.6">
+      <c r="A33" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="115.2">
+      <c r="A34" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="201.6">
+      <c r="A35" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="52"/>
+    </row>
+    <row r="38" spans="1:4" ht="129.6">
+      <c r="A38" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="72">
+      <c r="A40" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="144">
+      <c r="A42" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="158.4">
+      <c r="A44" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.2">
+      <c r="A46" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2">
+      <c r="A48" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8">
+      <c r="A50" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2">
+      <c r="A52" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8">
+      <c r="A53" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8">
+      <c r="A54" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8">
+      <c r="A55" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="86.4">
+      <c r="A57" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="129.6">
+      <c r="A59" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="189" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="100.8">
+      <c r="A63" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.8">
+      <c r="A67" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="129.6">
+      <c r="A69" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="409.6">
+      <c r="A71" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
@@ -12251,18 +13523,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45" style="25" customWidth="1"/>
-    <col min="2" max="2" width="78" style="35" customWidth="1"/>
+    <col min="1" max="1" width="45" style="24" customWidth="1"/>
+    <col min="2" max="2" width="78" style="34" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -12270,50 +13542,50 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>166</v>
+      <c r="D4" s="53" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -12321,14 +13593,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -12336,14 +13608,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -12351,14 +13623,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -12366,381 +13638,381 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="100"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="100"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="43" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="100"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="97"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="86.4">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>160</v>
+      <c r="B22" s="34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="25" t="s">
-        <v>124</v>
+      <c r="A26" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="25" t="s">
-        <v>131</v>
+      <c r="A27" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="100.8">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="29" spans="1:4" ht="86.4">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="35" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="45" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="46" t="s">
+      <c r="B31" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="104" t="s">
+      <c r="B32" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="47" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="106"/>
+      <c r="B33" s="47" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="105"/>
-      <c r="B33" s="48" t="s">
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="106"/>
+      <c r="B34" s="47" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="105"/>
-      <c r="B34" s="48" t="s">
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="106"/>
+      <c r="B35" s="47" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="105"/>
-      <c r="B35" s="48" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="107"/>
+      <c r="B36" s="48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="49" t="s">
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="105" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="104" t="s">
+      <c r="B37" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="47" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="107"/>
+      <c r="B38" s="48" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="106"/>
-      <c r="B38" s="49" t="s">
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="105" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="104" t="s">
+      <c r="B39" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="47" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="106"/>
+      <c r="B40" s="47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="105"/>
-      <c r="B40" s="48" t="s">
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="107"/>
+      <c r="B41" s="48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="106"/>
-      <c r="B41" s="49" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="50" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="51" t="s">
+      <c r="B42" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="50" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="105" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="104" t="s">
+      <c r="B43" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="47" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="107"/>
+      <c r="B44" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="106"/>
-      <c r="B44" s="49" t="s">
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="105" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="104" t="s">
+      <c r="B45" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="47" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="107"/>
+      <c r="B46" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="106"/>
-      <c r="B46" s="49" t="s">
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="50" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="51" t="s">
+      <c r="B47" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="50" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="105" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="104" t="s">
+      <c r="B48" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="47" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="111"/>
+      <c r="B49" s="48" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="25" t="s">
-        <v>243</v>
+      <c r="A52" s="24" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="22.8">
+      <c r="A55" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B55" s="57" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="23.4" thickBot="1">
+      <c r="A56" s="58" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="22.8">
-      <c r="A55" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="B55" s="58" t="s">
+      <c r="B56" s="59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="56" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="23.4" thickBot="1">
-      <c r="A56" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="B56" s="60" t="s">
+      <c r="B57" s="108" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="56" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="57" t="s">
+      <c r="B58" s="109"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1">
+      <c r="A59" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B59" s="110"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="59" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B58" s="108"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1">
-      <c r="A59" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="B59" s="109"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1">
-      <c r="A60" s="59" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="60" t="s">
+      <c r="B61" s="61" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>301</v>
-      </c>
-    </row>
     <row r="64" spans="1:3" ht="129.6">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="C64" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B66" s="34" t="s">
         <v>306</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="43.2">
       <c r="A68" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B68" s="74" t="s">
-        <v>483</v>
+        <v>480</v>
+      </c>
+      <c r="B68" s="73" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="43.2">
       <c r="A69" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B69" s="74" t="s">
-        <v>481</v>
+        <v>478</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>479</v>
+        <v>476</v>
+      </c>
+      <c r="B70" s="73" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3"/>
-      <c r="B71" s="74"/>
+      <c r="B71" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12764,209 +14036,214 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45" style="25" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="45" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="129.6">
+      <c r="A5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="115.2">
+      <c r="A7" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="129.6">
-      <c r="A5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.2">
-      <c r="A7" s="96" t="s">
+      <c r="C7" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4">
+      <c r="A8" s="98"/>
+      <c r="B8" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8">
+      <c r="A11" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="24" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="24" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="86.4">
-      <c r="A8" s="97"/>
-      <c r="B8" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
-      <c r="A11" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="15" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8">
+      <c r="A21" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8">
+      <c r="A22" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8">
+      <c r="A23" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="57.6">
+      <c r="A27" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8">
-      <c r="A21" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8">
-      <c r="A22" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8">
-      <c r="A23" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="57.6">
-      <c r="A27" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="B27" s="15" t="s">
+    <row r="28" spans="1:3" ht="57.6">
+      <c r="A28" s="98"/>
+      <c r="B28" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="57.6">
-      <c r="A28" s="97"/>
-      <c r="B28" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" ht="28.8">
-      <c r="A31" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>323</v>
+      <c r="A31" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2">
-      <c r="A33" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>565</v>
+      <c r="A33" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -12979,7 +14256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -13029,7 +14306,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -13037,100 +14314,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45" style="28" customWidth="1"/>
-    <col min="2" max="2" width="80.77734375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="55.44140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="45" style="27" customWidth="1"/>
+    <col min="2" max="2" width="80.77734375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72">
+      <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72">
-      <c r="A5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="15" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8">
-      <c r="A7" s="28" t="s">
+      <c r="B7" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="43.2">
+      <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.2">
-      <c r="A9" s="28" t="s">
+      <c r="B9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6">
+      <c r="B12" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="86.4">
+      <c r="A14" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="46.8" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6">
-      <c r="B12" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" ht="86.4">
-      <c r="A14" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="46.8" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>498</v>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -13139,7 +14421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:B31"/>
   <sheetViews>
@@ -13159,38 +14441,38 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="26" t="s">
-        <v>440</v>
+      <c r="B5" s="25" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="26" t="s">
-        <v>128</v>
+      <c r="B6" s="25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>115</v>
+      <c r="B9" s="25" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="26" t="s">
-        <v>128</v>
+      <c r="B10" s="25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -13229,7 +14511,7 @@
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13262,191 +14544,191 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" style="63" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="63"/>
+    <col min="1" max="1" width="30.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="316.8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>312</v>
+      <c r="B3" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8">
+      <c r="A21" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="72">
+      <c r="A23" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="54.6">
+      <c r="A26" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8">
+      <c r="A29" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6">
+      <c r="A32" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8">
-      <c r="A21" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" ht="72">
-      <c r="A23" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8">
-      <c r="A24" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="54.6">
-      <c r="A26" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8">
-      <c r="A29" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="57.6">
-      <c r="A32" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="64" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="33" spans="1:3" ht="28.8">
-      <c r="A33" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="37" spans="1:3" ht="43.2">
-      <c r="A37" s="25" t="s">
-        <v>242</v>
+      <c r="A37" s="24" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="187.2">
-      <c r="A39" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>389</v>
+      <c r="A39" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
-      <c r="A41" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>357</v>
+      <c r="A41" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="25" t="s">
-        <v>478</v>
+      <c r="A43" s="24" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="25" t="s">
-        <v>477</v>
+      <c r="A44" s="24" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8">
-      <c r="A45" s="25" t="s">
-        <v>476</v>
+      <c r="A45" s="24" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -13463,57 +14745,57 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="230.4">
       <c r="A3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>202</v>
+      <c r="B5" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>228</v>
+      <c r="A7" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -13534,18 +14816,18 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -13553,8 +14835,8 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>161</v>
+      <c r="B3" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1">
@@ -13566,7 +14848,7 @@
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13574,117 +14856,117 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>655</v>
+      <c r="B8" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
-      <c r="A14" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>463</v>
+      <c r="A14" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="92" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+    </row>
+    <row r="19" spans="2:3" ht="15" thickBot="1">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+    </row>
+    <row r="20" spans="2:3" ht="30">
+      <c r="B20" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="78"/>
+      <c r="C21" s="82"/>
+    </row>
+    <row r="22" spans="2:3" ht="45.6" thickBot="1">
+      <c r="B22" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.6" thickBot="1">
+      <c r="B23" s="84" t="s">
+        <v>536</v>
+      </c>
+      <c r="C23" s="85" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="91" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="15">
+      <c r="B24" s="86" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-    </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1">
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-    </row>
-    <row r="20" spans="2:3" ht="30">
-      <c r="B20" s="81" t="s">
+      <c r="C24" s="87" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="78"/>
+      <c r="C25" s="82"/>
+    </row>
+    <row r="26" spans="2:3" ht="45.6" thickBot="1">
+      <c r="B26" s="84" t="s">
         <v>539</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C26" s="85" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="30.6" thickBot="1">
+      <c r="B27" s="84" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="79"/>
-      <c r="C21" s="83"/>
-    </row>
-    <row r="22" spans="2:3" ht="45.6" thickBot="1">
-      <c r="B22" s="80" t="s">
-        <v>540</v>
-      </c>
-      <c r="C22" s="84" t="s">
+      <c r="C27" s="85" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.6" thickBot="1">
-      <c r="B23" s="85" t="s">
+    <row r="28" spans="2:3" ht="30" customHeight="1" thickBot="1">
+      <c r="B28" s="95" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15">
-      <c r="B24" s="87" t="s">
-        <v>545</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="83"/>
-    </row>
-    <row r="26" spans="2:3" ht="45.6" thickBot="1">
-      <c r="B26" s="85" t="s">
-        <v>546</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="30.6" thickBot="1">
-      <c r="B27" s="85" t="s">
-        <v>548</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="94" t="s">
-        <v>550</v>
-      </c>
-      <c r="C28" s="95"/>
+      <c r="C28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13699,696 +14981,787 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45" style="25" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="79" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="59" style="23" customWidth="1"/>
+    <col min="1" max="1" width="45" style="24" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="79" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="59" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8">
+      <c r="A4" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8">
-      <c r="A4" s="25" t="s">
+    <row r="6" spans="1:4" ht="43.2">
+      <c r="A6" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="95.4" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="115.2">
+      <c r="A12" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="93" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8">
+      <c r="A17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2">
+      <c r="A18" s="24" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2">
-      <c r="A6" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="95.4" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2">
+      <c r="A19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="129.6">
-      <c r="A12" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="57.6">
+      <c r="A20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72">
+      <c r="A21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="92.4">
+      <c r="A22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="107.4" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="130.5" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="130.5" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="115.2">
+      <c r="A26" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6">
+      <c r="A28" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72">
+      <c r="A29" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2">
+      <c r="A31" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" customHeight="1"/>
+    <row r="35" spans="1:5" ht="86.4">
+      <c r="A35" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8">
+      <c r="A37" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4">
+      <c r="A39" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="115.2">
+      <c r="A41" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="100.8">
+      <c r="A42" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="158.4">
+      <c r="A43" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="216">
+      <c r="A45" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="129.6">
+      <c r="A47" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="115.2">
+      <c r="A48" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8">
+      <c r="A51" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2">
+      <c r="A52" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2">
+      <c r="A53" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="28"/>
+    </row>
+    <row r="57" spans="1:3" ht="27.6">
+      <c r="A57" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="1:3" ht="27.6">
+      <c r="A58" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="28"/>
+    </row>
+    <row r="60" spans="1:3" ht="27.6">
+      <c r="A60" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="28"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="76"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="1:3" ht="28.8">
+      <c r="A64" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="66" spans="1:3" ht="28.8">
+      <c r="A66" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="127.5" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="88.2" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="72">
+      <c r="A72" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8">
+      <c r="A74" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="57.6">
+      <c r="A76" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="259.2">
+      <c r="A78" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="86.4">
+      <c r="A79" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="58.5" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="93" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8">
-      <c r="A17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2">
-      <c r="A18" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.2">
-      <c r="A19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57.6">
-      <c r="A20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72">
-      <c r="A21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="105.6">
-      <c r="A22" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="107.4" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="130.5" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="130.5" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="115.2">
-      <c r="A26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6">
-      <c r="A28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72">
-      <c r="A29" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42.75" customHeight="1">
-      <c r="A31" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42.75" customHeight="1"/>
-    <row r="33" spans="1:5" ht="86.4">
-      <c r="A33" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8">
-      <c r="A35" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="86.4">
-      <c r="A37" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="115.2">
-      <c r="A39" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="100.8">
-      <c r="A40" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="158.4">
-      <c r="A41" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="129.6">
-      <c r="A43" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="115.2">
-      <c r="A44" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.8">
-      <c r="A47" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.2">
-      <c r="A48" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="43.2">
-      <c r="A49" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="29"/>
-    </row>
-    <row r="53" spans="1:3" ht="27.6">
-      <c r="A53" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" spans="1:3" ht="27.6">
-      <c r="A54" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="29"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="29"/>
-    </row>
-    <row r="56" spans="1:3" ht="27.6">
-      <c r="A56" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="29"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="29"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="29"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="29"/>
-    </row>
-    <row r="60" spans="1:3" ht="28.8">
-      <c r="A60" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="C60" s="29"/>
-    </row>
-    <row r="62" spans="1:3" ht="28.8">
-      <c r="A62" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A64" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="88.2" customHeight="1">
-      <c r="A66" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="72">
-      <c r="A68" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="B68" s="15" t="s">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="24" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.8">
+      <c r="A91" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.2">
+      <c r="A93" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B93" s="51" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="43.2">
+      <c r="A97" s="24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="43.2">
+      <c r="A99" s="24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="24" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.8">
-      <c r="A70" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="57.6">
-      <c r="A72" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="259.2">
-      <c r="A74" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="86.4">
-      <c r="A78" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="28.8">
-      <c r="A80" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="43.2">
-      <c r="A82" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="43.2">
-      <c r="A86" s="25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="43.2">
-      <c r="A88" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="57.6">
-      <c r="A92" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="25" t="s">
+    <row r="103" spans="1:3" ht="57.6">
+      <c r="A103" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="43.2">
+      <c r="A105" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.8">
+      <c r="B110" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B96" s="15" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="B113" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.8">
-      <c r="B97" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="C97" s="15" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="24" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="25" t="s">
+      <c r="B114" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="C114" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="25" t="s">
-        <v>644</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="25" t="s">
-        <v>647</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="28.8">
-      <c r="A104" s="25" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="28.8">
+      <c r="A117" s="24" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="57.6">
+      <c r="A119" s="24" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="28.8">
+      <c r="A121" s="24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="100.8">
+      <c r="A123" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="86.4">
+      <c r="A125" s="90" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="28.8">
+      <c r="A127" s="24" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="28.8">
+      <c r="A129" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="B129" s="51" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="57.6">
-      <c r="A106" s="25" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="28.8">
-      <c r="A108" s="25" t="s">
+    <row r="131" spans="1:2" ht="28.8">
+      <c r="B131" s="14" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="100.8">
-      <c r="A110" s="25" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="86.4">
-      <c r="A112" s="111" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="28.8">
-      <c r="A114" s="25" t="s">
-        <v>678</v>
+    <row r="133" spans="1:2">
+      <c r="A133" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="43.2">
+      <c r="A135" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C35" r:id="rId3" xr:uid="{1DB1D179-E8C3-4429-8C7A-6AB514BCEAD3}"/>
-    <hyperlink ref="B37" r:id="rId4" xr:uid="{96B5D1D9-FAE0-455D-A6BD-8F8C516948C6}"/>
-    <hyperlink ref="B35" r:id="rId5" xr:uid="{25686889-133F-46D4-9BBE-15B98084E77A}"/>
-    <hyperlink ref="B80" r:id="rId6" xr:uid="{8A296D3F-3ECD-4E58-A6B8-AF2203F14FE0}"/>
-    <hyperlink ref="B82" r:id="rId7" location=":~:text=HashSet&amp;text=Use%20a%20HashSet%20when%20you,a%20unique%20list%20of%20items." xr:uid="{A0BA02C6-61DD-4158-95E0-FFE3583ED182}"/>
+    <hyperlink ref="B91" r:id="rId2" xr:uid="{8A296D3F-3ECD-4E58-A6B8-AF2203F14FE0}"/>
+    <hyperlink ref="B93" r:id="rId3" location=":~:text=HashSet&amp;text=Use%20a%20HashSet%20when%20you,a%20unique%20list%20of%20items." xr:uid="{A0BA02C6-61DD-4158-95E0-FFE3583ED182}"/>
+    <hyperlink ref="B129" r:id="rId4" xr:uid="{D9DA8F22-B446-471A-9693-05CE5C4C04F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -14396,113 +15769,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45" style="28" customWidth="1"/>
-    <col min="2" max="2" width="79.5546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="50.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="45" style="27" customWidth="1"/>
+    <col min="2" max="2" width="79.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="100.8">
+      <c r="A5" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="100.8">
-      <c r="A5" s="28" t="s">
+    <row r="7" spans="1:3" ht="86.4">
+      <c r="A7" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="86.4">
-      <c r="A7" s="28" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="72">
+      <c r="A9" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="100.8">
+      <c r="A11" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="28" t="s">
+      <c r="B11" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="100.8">
-      <c r="A11" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="28" t="s">
-        <v>488</v>
+      <c r="A13" s="27" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="28" t="s">
-        <v>666</v>
+      <c r="A15" s="27" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28" t="s">
-        <v>667</v>
+      <c r="A17" s="27" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="28.8">
-      <c r="A19" s="28" t="s">
-        <v>669</v>
+      <c r="A19" s="27" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="28.8">
-      <c r="A21" s="28" t="s">
-        <v>670</v>
+      <c r="A21" s="27" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="28" t="s">
-        <v>671</v>
+      <c r="A23" s="27" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8">
-      <c r="A25" s="28" t="s">
-        <v>672</v>
+      <c r="A25" s="27" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -14513,11 +15886,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14540,18 +15913,18 @@
     </row>
     <row r="3" spans="1:3" ht="100.8">
       <c r="A3" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2">
       <c r="A5" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2">
@@ -14567,21 +15940,21 @@
     </row>
     <row r="8" spans="1:3" ht="57" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144">
       <c r="A9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="129.6">
@@ -14589,7 +15962,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="144">
@@ -14600,14 +15973,14 @@
         <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -14616,89 +15989,89 @@
         <v>62</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6">
       <c r="A18" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="43.2">
       <c r="A20" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="144">
       <c r="B22" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.2">
       <c r="A26" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="9" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8">
       <c r="B30" s="9" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="B31" s="9" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="72">
       <c r="A33" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="115.2">
@@ -14706,7 +16079,12 @@
         <v>53</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>584</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -14717,17 +16095,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17F0E62-B9F5-4418-8562-600BF9ECEF58}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="54.21875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="63.33203125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" style="62" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14744,27 +16122,27 @@
     </row>
     <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>628</v>
+        <v>619</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>618</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
-      <c r="B3" s="90"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="130.19999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14774,13 +16152,13 @@
     </row>
     <row r="6" spans="1:3" ht="100.8">
       <c r="A6" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14790,10 +16168,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -14804,10 +16182,10 @@
     </row>
     <row r="10" spans="1:3" ht="43.2">
       <c r="A10" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -14818,10 +16196,10 @@
     </row>
     <row r="12" spans="1:3" ht="133.19999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>609</v>
+        <v>757</v>
       </c>
       <c r="C12" s="9"/>
     </row>
@@ -14832,10 +16210,10 @@
     </row>
     <row r="14" spans="1:3" ht="57.6">
       <c r="A14" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -14846,13 +16224,13 @@
     </row>
     <row r="16" spans="1:3" ht="100.8">
       <c r="A16" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14862,56 +16240,56 @@
     </row>
     <row r="18" spans="1:3" ht="172.8">
       <c r="A18" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B18" s="89" t="s">
-        <v>621</v>
+        <v>611</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>612</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
-      <c r="B19" s="89"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="115.2">
       <c r="A20" s="3" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
-      <c r="B21" s="89"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="129.6">
       <c r="A22" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B22" s="89" t="s">
-        <v>626</v>
+        <v>614</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>617</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
-      <c r="B23" s="89"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="57.6">
       <c r="A24" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>625</v>
+        <v>615</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>616</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -14922,10 +16300,10 @@
     </row>
     <row r="26" spans="1:3" ht="86.4">
       <c r="A26" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>654</v>
+        <v>749</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>644</v>
       </c>
       <c r="C26" s="9"/>
     </row>
@@ -14946,13 +16324,13 @@
     </row>
     <row r="30" spans="1:3" ht="86.4">
       <c r="A30" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14962,13 +16340,13 @@
     </row>
     <row r="32" spans="1:3" ht="115.2">
       <c r="A32" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -14978,42 +16356,38 @@
     </row>
     <row r="34" spans="1:3" ht="151.19999999999999" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>590</v>
+        <v>705</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.8" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" ht="103.8" customHeight="1">
+    <row r="36" spans="1:3" ht="13.8" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>676</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" ht="13.8" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" ht="43.2">
-      <c r="A38" s="25" t="s">
-        <v>630</v>
+    <row r="38" spans="1:3" ht="42" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>631</v>
+        <v>770</v>
       </c>
       <c r="C38" s="9"/>
     </row>
@@ -15022,14 +16396,16 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" ht="28.8">
-      <c r="A40" s="3" t="s">
-        <v>632</v>
+    <row r="40" spans="1:3" ht="121.2" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>699</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C40" s="9"/>
+        <v>700</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3"/>
@@ -15041,58 +16417,54 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="103.8" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>656</v>
+        <v>584</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C43" s="9"/>
+        <v>585</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" ht="86.4">
-      <c r="A45" s="3" t="s">
-        <v>657</v>
+    <row r="45" spans="1:3" ht="43.2">
+      <c r="A45" s="24" t="s">
+        <v>620</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:3" ht="100.8">
-      <c r="A46" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>662</v>
-      </c>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3" ht="115.2">
+    <row r="47" spans="1:3" ht="28.8">
       <c r="A47" s="3" t="s">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" ht="57.6">
-      <c r="A48" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>664</v>
-      </c>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>753</v>
+      </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
     </row>
@@ -15102,22 +16474,24 @@
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>756</v>
+      </c>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3"/>
-      <c r="B52" s="9" t="s">
-        <v>634</v>
-      </c>
+      <c r="B52" s="9"/>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="9" t="s">
-        <v>635</v>
-      </c>
+      <c r="A53" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B53" s="9"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3">
@@ -15126,8 +16500,12 @@
       <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>650</v>
+      </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3">
@@ -15135,30 +16513,52 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="9"/>
+    <row r="57" spans="1:3" ht="86.4">
+      <c r="A57" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>654</v>
+      </c>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="9"/>
+    <row r="58" spans="1:3" ht="100.8">
+      <c r="A58" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>651</v>
+      </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="9"/>
+    <row r="59" spans="1:3" ht="115.2">
+      <c r="A59" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>652</v>
+      </c>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="9"/>
+    <row r="60" spans="1:3" ht="57.6">
+      <c r="A60" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>653</v>
+      </c>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+    <row r="61" spans="1:3" ht="43.2">
+      <c r="A61" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3"/>
@@ -15172,12 +16572,16 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3"/>
-      <c r="B64" s="9"/>
+      <c r="B64" s="9" t="s">
+        <v>624</v>
+      </c>
       <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3"/>
-      <c r="B65" s="9"/>
+      <c r="B65" s="9" t="s">
+        <v>625</v>
+      </c>
       <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3">
@@ -15185,9 +16589,13 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="9"/>
+    <row r="67" spans="1:3" ht="28.8">
+      <c r="A67" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>766</v>
+      </c>
       <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3">
@@ -15195,9 +16603,13 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="9"/>
+    <row r="69" spans="1:3" ht="115.2">
+      <c r="A69" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>768</v>
+      </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3">
@@ -15444,6 +16856,66 @@
       <c r="A118" s="3"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="3"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="3"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="3"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15455,433 +16927,904 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6B845E-DE90-43DA-BBB2-6936AEE88D0C}">
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45" style="25" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="64.5546875" style="66" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="91" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="53" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="187.2">
-      <c r="A4" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="259.2">
-      <c r="A6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="216">
-      <c r="A8" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="216">
-      <c r="A9" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="115.2">
-      <c r="A10" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2">
-      <c r="A12" s="96" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="100.8">
-      <c r="A15" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="129.6">
-      <c r="A16" s="97"/>
-      <c r="B16" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="100.8">
-      <c r="A18" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>208</v>
-      </c>
+    <row r="2" spans="1:3" ht="28.8">
+      <c r="A2" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="52" t="s">
+        <v>706</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="43.2">
+      <c r="A14" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.8">
+      <c r="A16" s="52" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="52" t="s">
+        <v>721</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="53"/>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
-      <c r="A21" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="187.2">
-      <c r="A23" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="144">
-      <c r="A25" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="144">
-      <c r="A27" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="144">
-      <c r="A29" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="187.2">
-      <c r="A31" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="201.6">
-      <c r="A33" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="115.2">
-      <c r="A34" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="201.6">
-      <c r="A35" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="53"/>
-    </row>
-    <row r="38" spans="1:4" ht="129.6">
-      <c r="A38" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="72">
-      <c r="A40" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="144">
-      <c r="A42" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="158.4">
-      <c r="A44" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="43.2">
-      <c r="A46" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="43.2">
-      <c r="A48" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8">
-      <c r="A50" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="43.2">
-      <c r="A52" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8">
-      <c r="A53" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8">
-      <c r="A54" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8">
-      <c r="A55" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="86.4">
-      <c r="A57" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="129.6">
-      <c r="A59" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="189" customHeight="1">
-      <c r="A61" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="100.8">
-      <c r="A63" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.8">
-      <c r="A67" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="129.6">
-      <c r="A69" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="409.6">
-      <c r="A71" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="D71" s="68" t="s">
-        <v>458</v>
-      </c>
+      <c r="A20" s="24"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="52" t="s">
+        <v>723</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="129.6">
+      <c r="A25" s="52" t="s">
+        <v>731</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" ht="28.8">
+      <c r="A30" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="52"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" ht="144">
+      <c r="A32" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="52"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" ht="201.6">
+      <c r="A34" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="52"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" ht="115.2">
+      <c r="A36" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="52"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="52"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="52"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="52"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="52"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="52"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="52"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="52"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="52"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="52"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="52"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="52"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="52"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="52"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="52"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="52"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="24"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="52"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="24"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="52"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="24"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="52"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="52"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="52"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="24"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="52"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="24"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="52"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="52"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="52"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="24"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="52"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="24"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="52"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="24"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="52"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="52"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="52"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="24"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="52"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="24"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="52"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="24"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="52"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="52"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="52"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="52"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="52"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="52"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="52"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="52"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="52"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="52"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="24"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="52"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="24"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="52"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="52"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="24"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="52"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="24"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="52"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="24"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="52"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="24"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="52"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="24"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="52"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="52"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="52"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="24"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="52"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="52"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="52"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="24"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="52"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A12:A13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>